--- a/data/311_data.xlsx
+++ b/data/311_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11124"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="三国志11武将表" sheetId="11" r:id="rId1"/>
@@ -3827,7 +3827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3873,12 +3873,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4215,8 +4209,8 @@
   <sheetPr/>
   <dimension ref="A1:N670"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="J541" sqref="J541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4277,7 +4271,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4321,7 +4315,7 @@
       <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4365,7 +4359,7 @@
       <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4409,7 +4403,7 @@
       <c r="M4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="2">
         <v>5</v>
       </c>
     </row>
@@ -4453,7 +4447,7 @@
       <c r="M5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4497,7 +4491,7 @@
       <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4541,7 +4535,7 @@
       <c r="M7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4585,7 +4579,7 @@
       <c r="M8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4629,7 +4623,7 @@
       <c r="M9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4673,7 +4667,7 @@
       <c r="M10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4717,7 +4711,7 @@
       <c r="M11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="2">
         <v>6</v>
       </c>
     </row>
@@ -4761,7 +4755,7 @@
       <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4805,7 +4799,7 @@
       <c r="M13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4849,7 +4843,7 @@
       <c r="M14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4893,7 +4887,7 @@
       <c r="M15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4937,7 +4931,7 @@
       <c r="M16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4981,7 +4975,7 @@
       <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5025,7 +5019,7 @@
       <c r="M18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5069,7 +5063,7 @@
       <c r="M19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5113,7 +5107,7 @@
       <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5157,7 +5151,7 @@
       <c r="M21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5201,7 +5195,7 @@
       <c r="M22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5245,7 +5239,7 @@
       <c r="M23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5289,7 +5283,7 @@
       <c r="M24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5333,7 +5327,7 @@
       <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5377,7 +5371,7 @@
       <c r="M26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5421,7 +5415,7 @@
       <c r="M27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5465,7 +5459,7 @@
       <c r="M28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="2">
         <v>2</v>
       </c>
     </row>
@@ -5509,7 +5503,7 @@
       <c r="M29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5553,7 +5547,7 @@
       <c r="M30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="2">
         <v>4</v>
       </c>
     </row>
@@ -5597,7 +5591,7 @@
       <c r="M31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="18"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:14">
       <c r="A32" s="13" t="s">
@@ -5639,7 +5633,7 @@
       <c r="M32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:14">
       <c r="A33" s="13" t="s">
@@ -5681,7 +5675,7 @@
       <c r="M33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:14">
       <c r="A34" s="13" t="s">
@@ -5723,7 +5717,7 @@
       <c r="M34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="18"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:14">
       <c r="A35" s="13" t="s">
@@ -5765,7 +5759,7 @@
       <c r="M35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N35" s="18"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:14">
       <c r="A36" s="13" t="s">
@@ -5807,7 +5801,7 @@
       <c r="M36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N36" s="18"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:14">
       <c r="A37" s="13" t="s">
@@ -5849,7 +5843,7 @@
       <c r="M37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N37" s="18"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:14">
       <c r="A38" s="13" t="s">
@@ -5891,7 +5885,7 @@
       <c r="M38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="18"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:14">
       <c r="A39" s="13" t="s">
@@ -5933,7 +5927,7 @@
       <c r="M39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N39" s="18"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:14">
       <c r="A40" s="13" t="s">
@@ -5975,7 +5969,7 @@
       <c r="M40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="18"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:14">
       <c r="A41" s="13" t="s">
@@ -6017,7 +6011,7 @@
       <c r="M41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N41" s="18"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:14">
       <c r="A42" s="13" t="s">
@@ -6059,7 +6053,7 @@
       <c r="M42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="18"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:14">
       <c r="A43" s="13" t="s">
@@ -6101,7 +6095,7 @@
       <c r="M43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N43" s="18"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:14">
       <c r="A44" s="13" t="s">
@@ -6143,7 +6137,7 @@
       <c r="M44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="18"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:14">
       <c r="A45" s="13" t="s">
@@ -6185,7 +6179,7 @@
       <c r="M45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N45" s="18"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:14">
       <c r="A46" s="13" t="s">
@@ -6227,7 +6221,7 @@
       <c r="M46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N46" s="18"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:14">
       <c r="A47" s="13" t="s">
@@ -6269,7 +6263,7 @@
       <c r="M47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="18"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:14">
       <c r="A48" s="13" t="s">
@@ -6311,7 +6305,7 @@
       <c r="M48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="18"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:14">
       <c r="A49" s="13" t="s">
@@ -6353,7 +6347,7 @@
       <c r="M49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N49" s="18"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:14">
       <c r="A50" s="13" t="s">
@@ -6395,7 +6389,7 @@
       <c r="M50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N50" s="18"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:14">
       <c r="A51" s="13" t="s">
@@ -6437,7 +6431,7 @@
       <c r="M51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N51" s="18"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:14">
       <c r="A52" s="13" t="s">
@@ -6479,7 +6473,7 @@
       <c r="M52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N52" s="18"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:14">
       <c r="A53" s="13" t="s">
@@ -6521,7 +6515,7 @@
       <c r="M53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N53" s="18"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:14">
       <c r="A54" s="13" t="s">
@@ -6563,7 +6557,7 @@
       <c r="M54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N54" s="18"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:14">
       <c r="A55" s="13" t="s">
@@ -6605,7 +6599,7 @@
       <c r="M55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N55" s="18"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:14">
       <c r="A56" s="13" t="s">
@@ -6647,7 +6641,7 @@
       <c r="M56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N56" s="18"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:14">
       <c r="A57" s="13" t="s">
@@ -6689,7 +6683,7 @@
       <c r="M57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N57" s="18"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:14">
       <c r="A58" s="13" t="s">
@@ -6731,7 +6725,7 @@
       <c r="M58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N58" s="18"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:14">
       <c r="A59" s="13" t="s">
@@ -6773,7 +6767,7 @@
       <c r="M59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N59" s="18"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:14">
       <c r="A60" s="13" t="s">
@@ -6815,7 +6809,7 @@
       <c r="M60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N60" s="18"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:14">
       <c r="A61" s="13" t="s">
@@ -6857,7 +6851,7 @@
       <c r="M61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N61" s="18"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:14">
       <c r="A62" s="13" t="s">
@@ -6899,7 +6893,7 @@
       <c r="M62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N62" s="18"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:14">
       <c r="A63" s="13" t="s">
@@ -6941,7 +6935,7 @@
       <c r="M63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N63" s="18"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:14">
       <c r="A64" s="13" t="s">
@@ -6983,7 +6977,7 @@
       <c r="M64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N64" s="18"/>
+      <c r="N64" s="2"/>
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:14">
       <c r="A65" s="13" t="s">
@@ -7025,7 +7019,7 @@
       <c r="M65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N65" s="18"/>
+      <c r="N65" s="2"/>
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:14">
       <c r="A66" s="13" t="s">
@@ -7067,7 +7061,7 @@
       <c r="M66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N66" s="18"/>
+      <c r="N66" s="2"/>
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:14">
       <c r="A67" s="13" t="s">
@@ -7109,7 +7103,7 @@
       <c r="M67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N67" s="18"/>
+      <c r="N67" s="2"/>
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:14">
       <c r="A68" s="13" t="s">
@@ -7151,7 +7145,7 @@
       <c r="M68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N68" s="18"/>
+      <c r="N68" s="2"/>
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:14">
       <c r="A69" s="13" t="s">
@@ -7193,7 +7187,7 @@
       <c r="M69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N69" s="18"/>
+      <c r="N69" s="2"/>
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:14">
       <c r="A70" s="13" t="s">
@@ -7235,7 +7229,7 @@
       <c r="M70" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N70" s="18"/>
+      <c r="N70" s="2"/>
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:14">
       <c r="A71" s="13" t="s">
@@ -7277,7 +7271,7 @@
       <c r="M71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N71" s="18"/>
+      <c r="N71" s="2"/>
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:14">
       <c r="A72" s="13" t="s">
@@ -7319,7 +7313,7 @@
       <c r="M72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N72" s="18"/>
+      <c r="N72" s="2"/>
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:14">
       <c r="A73" s="13" t="s">
@@ -7361,7 +7355,7 @@
       <c r="M73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N73" s="18"/>
+      <c r="N73" s="2"/>
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:14">
       <c r="A74" s="13" t="s">
@@ -7403,7 +7397,7 @@
       <c r="M74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N74" s="18"/>
+      <c r="N74" s="2"/>
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:14">
       <c r="A75" s="13" t="s">
@@ -7445,7 +7439,7 @@
       <c r="M75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N75" s="18"/>
+      <c r="N75" s="2"/>
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:14">
       <c r="A76" s="13" t="s">
@@ -7487,7 +7481,7 @@
       <c r="M76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N76" s="18"/>
+      <c r="N76" s="2"/>
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:14">
       <c r="A77" s="13" t="s">
@@ -7529,7 +7523,7 @@
       <c r="M77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N77" s="18"/>
+      <c r="N77" s="2"/>
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:14">
       <c r="A78" s="13" t="s">
@@ -7571,7 +7565,7 @@
       <c r="M78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N78" s="18"/>
+      <c r="N78" s="2"/>
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:14">
       <c r="A79" s="13" t="s">
@@ -7613,7 +7607,7 @@
       <c r="M79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N79" s="18"/>
+      <c r="N79" s="2"/>
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:14">
       <c r="A80" s="13" t="s">
@@ -7655,7 +7649,7 @@
       <c r="M80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N80" s="18"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:14">
       <c r="A81" s="13" t="s">
@@ -7697,7 +7691,7 @@
       <c r="M81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N81" s="18"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:14">
       <c r="A82" s="13" t="s">
@@ -7739,7 +7733,7 @@
       <c r="M82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N82" s="18"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:14">
       <c r="A83" s="13" t="s">
@@ -7781,7 +7775,7 @@
       <c r="M83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N83" s="18"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:14">
       <c r="A84" s="13" t="s">
@@ -7823,7 +7817,7 @@
       <c r="M84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N84" s="18"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:14">
       <c r="A85" s="13" t="s">
@@ -7865,7 +7859,7 @@
       <c r="M85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N85" s="18"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:14">
       <c r="A86" s="13" t="s">
@@ -7907,7 +7901,7 @@
       <c r="M86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N86" s="18"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:14">
       <c r="A87" s="13" t="s">
@@ -7949,7 +7943,7 @@
       <c r="M87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N87" s="18"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:14">
       <c r="A88" s="13" t="s">
@@ -7991,7 +7985,7 @@
       <c r="M88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N88" s="18"/>
+      <c r="N88" s="2"/>
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:14">
       <c r="A89" s="13" t="s">
@@ -8033,7 +8027,7 @@
       <c r="M89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N89" s="18"/>
+      <c r="N89" s="2"/>
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:14">
       <c r="A90" s="13" t="s">
@@ -8075,7 +8069,7 @@
       <c r="M90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N90" s="18"/>
+      <c r="N90" s="2"/>
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:14">
       <c r="A91" s="13" t="s">
@@ -8117,7 +8111,7 @@
       <c r="M91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N91" s="18"/>
+      <c r="N91" s="2"/>
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:14">
       <c r="A92" s="13" t="s">
@@ -8159,7 +8153,7 @@
       <c r="M92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N92" s="18"/>
+      <c r="N92" s="2"/>
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:14">
       <c r="A93" s="13" t="s">
@@ -8201,7 +8195,7 @@
       <c r="M93" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N93" s="18"/>
+      <c r="N93" s="2"/>
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:14">
       <c r="A94" s="13" t="s">
@@ -8243,7 +8237,7 @@
       <c r="M94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N94" s="18"/>
+      <c r="N94" s="2"/>
     </row>
     <row r="95" ht="22.5" customHeight="1" spans="1:14">
       <c r="A95" s="13" t="s">
@@ -8285,7 +8279,7 @@
       <c r="M95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N95" s="18"/>
+      <c r="N95" s="2"/>
     </row>
     <row r="96" ht="22.5" customHeight="1" spans="1:14">
       <c r="A96" s="13" t="s">
@@ -8327,7 +8321,7 @@
       <c r="M96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N96" s="18"/>
+      <c r="N96" s="2"/>
     </row>
     <row r="97" ht="22.5" customHeight="1" spans="1:14">
       <c r="A97" s="13" t="s">
@@ -8369,7 +8363,7 @@
       <c r="M97" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N97" s="18"/>
+      <c r="N97" s="2"/>
     </row>
     <row r="98" ht="22.5" customHeight="1" spans="1:14">
       <c r="A98" s="13" t="s">
@@ -8411,7 +8405,7 @@
       <c r="M98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N98" s="18"/>
+      <c r="N98" s="2"/>
     </row>
     <row r="99" ht="22.5" customHeight="1" spans="1:14">
       <c r="A99" s="13" t="s">
@@ -8453,7 +8447,7 @@
       <c r="M99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N99" s="18"/>
+      <c r="N99" s="2"/>
     </row>
     <row r="100" ht="22.5" customHeight="1" spans="1:14">
       <c r="A100" s="13" t="s">
@@ -8495,7 +8489,7 @@
       <c r="M100" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N100" s="18"/>
+      <c r="N100" s="2"/>
     </row>
     <row r="101" ht="22.5" customHeight="1" spans="1:14">
       <c r="A101" s="13" t="s">
@@ -8537,7 +8531,7 @@
       <c r="M101" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N101" s="18"/>
+      <c r="N101" s="2"/>
     </row>
     <row r="102" ht="22.5" customHeight="1" spans="1:14">
       <c r="A102" s="13" t="s">
@@ -8579,7 +8573,7 @@
       <c r="M102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N102" s="18"/>
+      <c r="N102" s="2"/>
     </row>
     <row r="103" ht="22.5" customHeight="1" spans="1:14">
       <c r="A103" s="13" t="s">
@@ -8621,7 +8615,7 @@
       <c r="M103" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N103" s="18"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" ht="22.5" customHeight="1" spans="1:14">
       <c r="A104" s="13" t="s">
@@ -8663,7 +8657,7 @@
       <c r="M104" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N104" s="18"/>
+      <c r="N104" s="2"/>
     </row>
     <row r="105" ht="22.5" customHeight="1" spans="1:14">
       <c r="A105" s="13" t="s">
@@ -8705,7 +8699,7 @@
       <c r="M105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N105" s="18"/>
+      <c r="N105" s="2"/>
     </row>
     <row r="106" ht="22.5" customHeight="1" spans="1:14">
       <c r="A106" s="13" t="s">
@@ -8747,7 +8741,7 @@
       <c r="M106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N106" s="18"/>
+      <c r="N106" s="2"/>
     </row>
     <row r="107" ht="22.5" customHeight="1" spans="1:14">
       <c r="A107" s="13" t="s">
@@ -8789,7 +8783,7 @@
       <c r="M107" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N107" s="18"/>
+      <c r="N107" s="2"/>
     </row>
     <row r="108" ht="22.5" customHeight="1" spans="1:14">
       <c r="A108" s="13" t="s">
@@ -8831,7 +8825,7 @@
       <c r="M108" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N108" s="18"/>
+      <c r="N108" s="2"/>
     </row>
     <row r="109" ht="22.5" customHeight="1" spans="1:14">
       <c r="A109" s="13" t="s">
@@ -8873,7 +8867,7 @@
       <c r="M109" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N109" s="18"/>
+      <c r="N109" s="2"/>
     </row>
     <row r="110" ht="22.5" customHeight="1" spans="1:14">
       <c r="A110" s="13" t="s">
@@ -8915,7 +8909,7 @@
       <c r="M110" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N110" s="18"/>
+      <c r="N110" s="2"/>
     </row>
     <row r="111" ht="22.5" customHeight="1" spans="1:14">
       <c r="A111" s="13" t="s">
@@ -8957,7 +8951,7 @@
       <c r="M111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N111" s="18"/>
+      <c r="N111" s="2"/>
     </row>
     <row r="112" ht="22.5" customHeight="1" spans="1:14">
       <c r="A112" s="13" t="s">
@@ -8999,7 +8993,7 @@
       <c r="M112" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N112" s="18"/>
+      <c r="N112" s="2"/>
     </row>
     <row r="113" ht="22.5" customHeight="1" spans="1:14">
       <c r="A113" s="13" t="s">
@@ -9041,7 +9035,7 @@
       <c r="M113" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N113" s="18"/>
+      <c r="N113" s="2"/>
     </row>
     <row r="114" ht="22.5" customHeight="1" spans="1:14">
       <c r="A114" s="13" t="s">
@@ -9083,7 +9077,7 @@
       <c r="M114" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N114" s="18"/>
+      <c r="N114" s="2"/>
     </row>
     <row r="115" ht="22.5" customHeight="1" spans="1:14">
       <c r="A115" s="13" t="s">
@@ -9125,7 +9119,7 @@
       <c r="M115" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N115" s="18"/>
+      <c r="N115" s="2"/>
     </row>
     <row r="116" ht="22.5" customHeight="1" spans="1:14">
       <c r="A116" s="13" t="s">
@@ -9167,7 +9161,7 @@
       <c r="M116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N116" s="18"/>
+      <c r="N116" s="2"/>
     </row>
     <row r="117" ht="22.5" customHeight="1" spans="1:14">
       <c r="A117" s="13" t="s">
@@ -9209,7 +9203,7 @@
       <c r="M117" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N117" s="18"/>
+      <c r="N117" s="2"/>
     </row>
     <row r="118" ht="22.5" customHeight="1" spans="1:14">
       <c r="A118" s="13" t="s">
@@ -9251,7 +9245,7 @@
       <c r="M118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N118" s="18"/>
+      <c r="N118" s="2"/>
     </row>
     <row r="119" ht="22.5" customHeight="1" spans="1:14">
       <c r="A119" s="13" t="s">
@@ -9293,7 +9287,7 @@
       <c r="M119" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N119" s="18"/>
+      <c r="N119" s="2"/>
     </row>
     <row r="120" ht="22.5" customHeight="1" spans="1:14">
       <c r="A120" s="13" t="s">
@@ -9335,7 +9329,7 @@
       <c r="M120" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N120" s="18"/>
+      <c r="N120" s="2"/>
     </row>
     <row r="121" ht="22.5" customHeight="1" spans="1:14">
       <c r="A121" s="13" t="s">
@@ -9377,7 +9371,7 @@
       <c r="M121" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N121" s="18"/>
+      <c r="N121" s="2"/>
     </row>
     <row r="122" ht="22.5" customHeight="1" spans="1:14">
       <c r="A122" s="13" t="s">
@@ -9419,7 +9413,7 @@
       <c r="M122" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N122" s="18"/>
+      <c r="N122" s="2"/>
     </row>
     <row r="123" ht="22.5" customHeight="1" spans="1:14">
       <c r="A123" s="13" t="s">
@@ -9461,7 +9455,7 @@
       <c r="M123" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N123" s="18"/>
+      <c r="N123" s="2"/>
     </row>
     <row r="124" ht="22.5" customHeight="1" spans="1:14">
       <c r="A124" s="13" t="s">
@@ -9503,7 +9497,7 @@
       <c r="M124" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N124" s="18"/>
+      <c r="N124" s="2"/>
     </row>
     <row r="125" ht="22.5" customHeight="1" spans="1:14">
       <c r="A125" s="13" t="s">
@@ -9545,7 +9539,7 @@
       <c r="M125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N125" s="18"/>
+      <c r="N125" s="2"/>
     </row>
     <row r="126" ht="22.5" customHeight="1" spans="1:14">
       <c r="A126" s="13" t="s">
@@ -9587,7 +9581,7 @@
       <c r="M126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N126" s="18"/>
+      <c r="N126" s="2"/>
     </row>
     <row r="127" ht="22.5" customHeight="1" spans="1:14">
       <c r="A127" s="13" t="s">
@@ -9629,7 +9623,7 @@
       <c r="M127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N127" s="18"/>
+      <c r="N127" s="2"/>
     </row>
     <row r="128" ht="22.5" customHeight="1" spans="1:14">
       <c r="A128" s="13" t="s">
@@ -9671,7 +9665,7 @@
       <c r="M128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N128" s="18"/>
+      <c r="N128" s="2"/>
     </row>
     <row r="129" ht="22.5" customHeight="1" spans="1:14">
       <c r="A129" s="13" t="s">
@@ -9713,7 +9707,7 @@
       <c r="M129" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N129" s="18"/>
+      <c r="N129" s="2"/>
     </row>
     <row r="130" ht="22.5" customHeight="1" spans="1:14">
       <c r="A130" s="13" t="s">
@@ -9755,7 +9749,7 @@
       <c r="M130" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N130" s="18"/>
+      <c r="N130" s="2"/>
     </row>
     <row r="131" ht="22.5" customHeight="1" spans="1:14">
       <c r="A131" s="13" t="s">
@@ -9797,7 +9791,7 @@
       <c r="M131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N131" s="18"/>
+      <c r="N131" s="2"/>
     </row>
     <row r="132" ht="22.5" customHeight="1" spans="1:14">
       <c r="A132" s="13" t="s">
@@ -9839,7 +9833,7 @@
       <c r="M132" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N132" s="18"/>
+      <c r="N132" s="2"/>
     </row>
     <row r="133" ht="22.5" customHeight="1" spans="1:14">
       <c r="A133" s="13" t="s">
@@ -9881,7 +9875,7 @@
       <c r="M133" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N133" s="18"/>
+      <c r="N133" s="2"/>
     </row>
     <row r="134" ht="22.5" customHeight="1" spans="1:14">
       <c r="A134" s="13" t="s">
@@ -9923,7 +9917,7 @@
       <c r="M134" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N134" s="18"/>
+      <c r="N134" s="2"/>
     </row>
     <row r="135" ht="22.5" customHeight="1" spans="1:14">
       <c r="A135" s="13" t="s">
@@ -9965,7 +9959,7 @@
       <c r="M135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N135" s="18"/>
+      <c r="N135" s="2"/>
     </row>
     <row r="136" ht="22.5" customHeight="1" spans="1:14">
       <c r="A136" s="13" t="s">
@@ -10007,7 +10001,7 @@
       <c r="M136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N136" s="18"/>
+      <c r="N136" s="2"/>
     </row>
     <row r="137" ht="22.5" customHeight="1" spans="1:14">
       <c r="A137" s="13" t="s">
@@ -10049,7 +10043,7 @@
       <c r="M137" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N137" s="18"/>
+      <c r="N137" s="2"/>
     </row>
     <row r="138" ht="22.5" customHeight="1" spans="1:14">
       <c r="A138" s="13" t="s">
@@ -10091,7 +10085,7 @@
       <c r="M138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N138" s="18"/>
+      <c r="N138" s="2"/>
     </row>
     <row r="139" ht="22.5" customHeight="1" spans="1:14">
       <c r="A139" s="13" t="s">
@@ -10133,7 +10127,7 @@
       <c r="M139" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N139" s="18"/>
+      <c r="N139" s="2"/>
     </row>
     <row r="140" ht="22.5" customHeight="1" spans="1:14">
       <c r="A140" s="13" t="s">
@@ -10175,7 +10169,7 @@
       <c r="M140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N140" s="18"/>
+      <c r="N140" s="2"/>
     </row>
     <row r="141" ht="22.5" customHeight="1" spans="1:14">
       <c r="A141" s="13" t="s">
@@ -10217,7 +10211,7 @@
       <c r="M141" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N141" s="18"/>
+      <c r="N141" s="2"/>
     </row>
     <row r="142" ht="22.5" customHeight="1" spans="1:14">
       <c r="A142" s="13" t="s">
@@ -10259,7 +10253,7 @@
       <c r="M142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N142" s="18"/>
+      <c r="N142" s="2"/>
     </row>
     <row r="143" ht="22.5" customHeight="1" spans="1:14">
       <c r="A143" s="13" t="s">
@@ -10301,7 +10295,7 @@
       <c r="M143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N143" s="18"/>
+      <c r="N143" s="2"/>
     </row>
     <row r="144" ht="22.5" customHeight="1" spans="1:14">
       <c r="A144" s="13" t="s">
@@ -10343,7 +10337,7 @@
       <c r="M144" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N144" s="18"/>
+      <c r="N144" s="2"/>
     </row>
     <row r="145" ht="22.5" customHeight="1" spans="1:14">
       <c r="A145" s="13" t="s">
@@ -10385,7 +10379,7 @@
       <c r="M145" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N145" s="18"/>
+      <c r="N145" s="2"/>
     </row>
     <row r="146" ht="22.5" customHeight="1" spans="1:14">
       <c r="A146" s="13" t="s">
@@ -10427,7 +10421,7 @@
       <c r="M146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N146" s="18"/>
+      <c r="N146" s="2"/>
     </row>
     <row r="147" ht="22.5" customHeight="1" spans="1:14">
       <c r="A147" s="13" t="s">
@@ -10469,7 +10463,7 @@
       <c r="M147" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N147" s="18"/>
+      <c r="N147" s="2"/>
     </row>
     <row r="148" ht="22.5" customHeight="1" spans="1:14">
       <c r="A148" s="13" t="s">
@@ -10511,7 +10505,7 @@
       <c r="M148" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N148" s="18"/>
+      <c r="N148" s="2"/>
     </row>
     <row r="149" ht="22.5" customHeight="1" spans="1:14">
       <c r="A149" s="13" t="s">
@@ -10553,7 +10547,7 @@
       <c r="M149" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N149" s="18"/>
+      <c r="N149" s="2"/>
     </row>
     <row r="150" ht="22.5" customHeight="1" spans="1:14">
       <c r="A150" s="13" t="s">
@@ -10595,7 +10589,7 @@
       <c r="M150" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N150" s="18"/>
+      <c r="N150" s="2"/>
     </row>
     <row r="151" ht="22.5" customHeight="1" spans="1:14">
       <c r="A151" s="13" t="s">
@@ -10637,7 +10631,7 @@
       <c r="M151" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N151" s="18"/>
+      <c r="N151" s="2"/>
     </row>
     <row r="152" ht="22.5" customHeight="1" spans="1:14">
       <c r="A152" s="13" t="s">
@@ -10679,7 +10673,7 @@
       <c r="M152" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N152" s="18"/>
+      <c r="N152" s="2"/>
     </row>
     <row r="153" ht="22.5" customHeight="1" spans="1:14">
       <c r="A153" s="13" t="s">
@@ -10721,7 +10715,7 @@
       <c r="M153" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N153" s="18"/>
+      <c r="N153" s="2"/>
     </row>
     <row r="154" ht="22.5" customHeight="1" spans="1:14">
       <c r="A154" s="13" t="s">
@@ -10763,7 +10757,7 @@
       <c r="M154" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N154" s="18"/>
+      <c r="N154" s="2"/>
     </row>
     <row r="155" ht="22.5" customHeight="1" spans="1:14">
       <c r="A155" s="13" t="s">
@@ -10805,7 +10799,7 @@
       <c r="M155" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N155" s="18"/>
+      <c r="N155" s="2"/>
     </row>
     <row r="156" ht="22.5" customHeight="1" spans="1:14">
       <c r="A156" s="13" t="s">
@@ -10847,7 +10841,7 @@
       <c r="M156" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N156" s="18"/>
+      <c r="N156" s="2"/>
     </row>
     <row r="157" ht="22.5" customHeight="1" spans="1:14">
       <c r="A157" s="13" t="s">
@@ -10889,7 +10883,7 @@
       <c r="M157" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N157" s="18"/>
+      <c r="N157" s="2"/>
     </row>
     <row r="158" ht="22.5" customHeight="1" spans="1:14">
       <c r="A158" s="13" t="s">
@@ -10931,7 +10925,7 @@
       <c r="M158" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N158" s="18"/>
+      <c r="N158" s="2"/>
     </row>
     <row r="159" ht="22.5" customHeight="1" spans="1:14">
       <c r="A159" s="13" t="s">
@@ -10973,7 +10967,7 @@
       <c r="M159" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N159" s="18"/>
+      <c r="N159" s="2"/>
     </row>
     <row r="160" ht="22.5" customHeight="1" spans="1:14">
       <c r="A160" s="13" t="s">
@@ -11015,7 +11009,7 @@
       <c r="M160" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N160" s="18"/>
+      <c r="N160" s="2"/>
     </row>
     <row r="161" ht="22.5" customHeight="1" spans="1:14">
       <c r="A161" s="13" t="s">
@@ -11057,7 +11051,7 @@
       <c r="M161" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N161" s="18"/>
+      <c r="N161" s="2"/>
     </row>
     <row r="162" ht="22.5" customHeight="1" spans="1:14">
       <c r="A162" s="13" t="s">
@@ -11099,7 +11093,7 @@
       <c r="M162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N162" s="18"/>
+      <c r="N162" s="2"/>
     </row>
     <row r="163" ht="22.5" customHeight="1" spans="1:14">
       <c r="A163" s="13" t="s">
@@ -11141,7 +11135,7 @@
       <c r="M163" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N163" s="18"/>
+      <c r="N163" s="2"/>
     </row>
     <row r="164" ht="22.5" customHeight="1" spans="1:14">
       <c r="A164" s="13" t="s">
@@ -11183,7 +11177,7 @@
       <c r="M164" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N164" s="18"/>
+      <c r="N164" s="2"/>
     </row>
     <row r="165" ht="22.5" customHeight="1" spans="1:14">
       <c r="A165" s="13" t="s">
@@ -11225,7 +11219,7 @@
       <c r="M165" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N165" s="18"/>
+      <c r="N165" s="2"/>
     </row>
     <row r="166" ht="22.5" customHeight="1" spans="1:14">
       <c r="A166" s="13" t="s">
@@ -11267,7 +11261,7 @@
       <c r="M166" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N166" s="18"/>
+      <c r="N166" s="2"/>
     </row>
     <row r="167" ht="22.5" customHeight="1" spans="1:14">
       <c r="A167" s="13" t="s">
@@ -11309,7 +11303,7 @@
       <c r="M167" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N167" s="18"/>
+      <c r="N167" s="2"/>
     </row>
     <row r="168" ht="22.5" customHeight="1" spans="1:14">
       <c r="A168" s="13" t="s">
@@ -11351,7 +11345,7 @@
       <c r="M168" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N168" s="18"/>
+      <c r="N168" s="2"/>
     </row>
     <row r="169" ht="22.5" customHeight="1" spans="1:14">
       <c r="A169" s="13" t="s">
@@ -11393,7 +11387,7 @@
       <c r="M169" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N169" s="18"/>
+      <c r="N169" s="2"/>
     </row>
     <row r="170" ht="22.5" customHeight="1" spans="1:14">
       <c r="A170" s="13" t="s">
@@ -11435,7 +11429,7 @@
       <c r="M170" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N170" s="18"/>
+      <c r="N170" s="2"/>
     </row>
     <row r="171" ht="22.5" customHeight="1" spans="1:14">
       <c r="A171" s="13" t="s">
@@ -11477,7 +11471,7 @@
       <c r="M171" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N171" s="18"/>
+      <c r="N171" s="2"/>
     </row>
     <row r="172" ht="22.5" customHeight="1" spans="1:14">
       <c r="A172" s="13" t="s">
@@ -11519,7 +11513,7 @@
       <c r="M172" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N172" s="18"/>
+      <c r="N172" s="2"/>
     </row>
     <row r="173" ht="22.5" customHeight="1" spans="1:14">
       <c r="A173" s="13" t="s">
@@ -11561,13 +11555,13 @@
       <c r="M173" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N173" s="18"/>
+      <c r="N173" s="2"/>
     </row>
     <row r="174" ht="22.5" customHeight="1" spans="1:14">
       <c r="A174" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B174" s="19">
+      <c r="B174" s="17">
         <v>34</v>
       </c>
       <c r="C174" s="2">
@@ -11579,7 +11573,7 @@
       <c r="E174" s="2">
         <v>84</v>
       </c>
-      <c r="F174" s="19">
+      <c r="F174" s="17">
         <v>84</v>
       </c>
       <c r="G174" s="2">
@@ -11603,7 +11597,7 @@
       <c r="M174" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N174" s="18"/>
+      <c r="N174" s="2"/>
     </row>
     <row r="175" ht="22.5" customHeight="1" spans="1:14">
       <c r="A175" s="13" t="s">
@@ -11645,7 +11639,7 @@
       <c r="M175" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N175" s="18"/>
+      <c r="N175" s="2"/>
     </row>
     <row r="176" ht="22.5" customHeight="1" spans="1:14">
       <c r="A176" s="13" t="s">
@@ -11687,7 +11681,7 @@
       <c r="M176" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N176" s="18"/>
+      <c r="N176" s="2"/>
     </row>
     <row r="177" ht="22.5" customHeight="1" spans="1:14">
       <c r="A177" s="13" t="s">
@@ -11729,7 +11723,7 @@
       <c r="M177" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N177" s="18"/>
+      <c r="N177" s="2"/>
     </row>
     <row r="178" ht="22.5" customHeight="1" spans="1:14">
       <c r="A178" s="13" t="s">
@@ -11771,7 +11765,7 @@
       <c r="M178" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N178" s="18"/>
+      <c r="N178" s="2"/>
     </row>
     <row r="179" ht="22.5" customHeight="1" spans="1:14">
       <c r="A179" s="13" t="s">
@@ -11813,7 +11807,7 @@
       <c r="M179" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N179" s="18"/>
+      <c r="N179" s="2"/>
     </row>
     <row r="180" ht="22.5" customHeight="1" spans="1:14">
       <c r="A180" s="13" t="s">
@@ -11855,7 +11849,7 @@
       <c r="M180" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N180" s="18"/>
+      <c r="N180" s="2"/>
     </row>
     <row r="181" ht="22.5" customHeight="1" spans="1:14">
       <c r="A181" s="13" t="s">
@@ -11897,7 +11891,7 @@
       <c r="M181" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N181" s="18"/>
+      <c r="N181" s="2"/>
     </row>
     <row r="182" ht="22.5" customHeight="1" spans="1:14">
       <c r="A182" s="13" t="s">
@@ -11939,7 +11933,7 @@
       <c r="M182" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N182" s="18"/>
+      <c r="N182" s="2"/>
     </row>
     <row r="183" ht="22.5" customHeight="1" spans="1:14">
       <c r="A183" s="13" t="s">
@@ -11981,7 +11975,7 @@
       <c r="M183" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N183" s="18"/>
+      <c r="N183" s="2"/>
     </row>
     <row r="184" ht="22.5" customHeight="1" spans="1:14">
       <c r="A184" s="13" t="s">
@@ -12023,7 +12017,7 @@
       <c r="M184" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N184" s="18"/>
+      <c r="N184" s="2"/>
     </row>
     <row r="185" ht="22.5" customHeight="1" spans="1:14">
       <c r="A185" s="13" t="s">
@@ -12065,7 +12059,7 @@
       <c r="M185" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N185" s="18"/>
+      <c r="N185" s="2"/>
     </row>
     <row r="186" ht="22.5" customHeight="1" spans="1:14">
       <c r="A186" s="13" t="s">
@@ -12107,7 +12101,7 @@
       <c r="M186" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N186" s="18"/>
+      <c r="N186" s="2"/>
     </row>
     <row r="187" ht="22.5" customHeight="1" spans="1:14">
       <c r="A187" s="13" t="s">
@@ -12149,7 +12143,7 @@
       <c r="M187" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N187" s="18"/>
+      <c r="N187" s="2"/>
     </row>
     <row r="188" ht="22.5" customHeight="1" spans="1:14">
       <c r="A188" s="13" t="s">
@@ -12191,7 +12185,7 @@
       <c r="M188" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N188" s="18"/>
+      <c r="N188" s="2"/>
     </row>
     <row r="189" ht="22.5" customHeight="1" spans="1:14">
       <c r="A189" s="13" t="s">
@@ -12233,7 +12227,7 @@
       <c r="M189" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N189" s="18"/>
+      <c r="N189" s="2"/>
     </row>
     <row r="190" ht="22.5" customHeight="1" spans="1:14">
       <c r="A190" s="13" t="s">
@@ -12275,7 +12269,7 @@
       <c r="M190" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N190" s="18"/>
+      <c r="N190" s="2"/>
     </row>
     <row r="191" ht="22.5" customHeight="1" spans="1:14">
       <c r="A191" s="13" t="s">
@@ -12317,7 +12311,7 @@
       <c r="M191" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N191" s="18"/>
+      <c r="N191" s="2"/>
     </row>
     <row r="192" ht="22.5" customHeight="1" spans="1:14">
       <c r="A192" s="13" t="s">
@@ -12359,7 +12353,7 @@
       <c r="M192" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N192" s="18"/>
+      <c r="N192" s="2"/>
     </row>
     <row r="193" ht="22.5" customHeight="1" spans="1:14">
       <c r="A193" s="13" t="s">
@@ -12401,7 +12395,7 @@
       <c r="M193" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N193" s="18"/>
+      <c r="N193" s="2"/>
     </row>
     <row r="194" ht="22.5" customHeight="1" spans="1:14">
       <c r="A194" s="13" t="s">
@@ -12443,7 +12437,7 @@
       <c r="M194" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N194" s="18"/>
+      <c r="N194" s="2"/>
     </row>
     <row r="195" ht="22.5" customHeight="1" spans="1:14">
       <c r="A195" s="13" t="s">
@@ -12485,7 +12479,7 @@
       <c r="M195" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N195" s="18"/>
+      <c r="N195" s="2"/>
     </row>
     <row r="196" ht="22.5" customHeight="1" spans="1:14">
       <c r="A196" s="13" t="s">
@@ -12527,7 +12521,7 @@
       <c r="M196" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N196" s="18"/>
+      <c r="N196" s="2"/>
     </row>
     <row r="197" ht="22.5" customHeight="1" spans="1:14">
       <c r="A197" s="13" t="s">
@@ -12569,7 +12563,7 @@
       <c r="M197" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N197" s="18"/>
+      <c r="N197" s="2"/>
     </row>
     <row r="198" ht="22.5" customHeight="1" spans="1:14">
       <c r="A198" s="13" t="s">
@@ -12611,7 +12605,7 @@
       <c r="M198" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N198" s="18"/>
+      <c r="N198" s="2"/>
     </row>
     <row r="199" ht="22.5" customHeight="1" spans="1:14">
       <c r="A199" s="13" t="s">
@@ -12653,7 +12647,7 @@
       <c r="M199" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N199" s="18"/>
+      <c r="N199" s="2"/>
     </row>
     <row r="200" ht="22.5" customHeight="1" spans="1:14">
       <c r="A200" s="13" t="s">
@@ -12695,7 +12689,7 @@
       <c r="M200" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N200" s="18"/>
+      <c r="N200" s="2"/>
     </row>
     <row r="201" ht="22.5" customHeight="1" spans="1:14">
       <c r="A201" s="13" t="s">
@@ -12737,7 +12731,7 @@
       <c r="M201" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N201" s="18"/>
+      <c r="N201" s="2"/>
     </row>
     <row r="202" ht="22.5" customHeight="1" spans="1:14">
       <c r="A202" s="13" t="s">
@@ -12779,7 +12773,7 @@
       <c r="M202" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N202" s="18"/>
+      <c r="N202" s="2"/>
     </row>
     <row r="203" ht="22.5" customHeight="1" spans="1:14">
       <c r="A203" s="13" t="s">
@@ -12821,7 +12815,7 @@
       <c r="M203" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N203" s="18"/>
+      <c r="N203" s="2"/>
     </row>
     <row r="204" ht="22.5" customHeight="1" spans="1:14">
       <c r="A204" s="13" t="s">
@@ -12863,7 +12857,7 @@
       <c r="M204" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N204" s="18"/>
+      <c r="N204" s="2"/>
     </row>
     <row r="205" ht="22.5" customHeight="1" spans="1:14">
       <c r="A205" s="13" t="s">
@@ -12905,7 +12899,7 @@
       <c r="M205" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N205" s="18"/>
+      <c r="N205" s="2"/>
     </row>
     <row r="206" ht="22.5" customHeight="1" spans="1:14">
       <c r="A206" s="13" t="s">
@@ -12947,7 +12941,7 @@
       <c r="M206" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N206" s="18"/>
+      <c r="N206" s="2"/>
     </row>
     <row r="207" ht="22.5" customHeight="1" spans="1:14">
       <c r="A207" s="13" t="s">
@@ -12989,7 +12983,7 @@
       <c r="M207" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N207" s="18"/>
+      <c r="N207" s="2"/>
     </row>
     <row r="208" ht="22.5" customHeight="1" spans="1:14">
       <c r="A208" s="13" t="s">
@@ -13031,7 +13025,7 @@
       <c r="M208" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N208" s="18"/>
+      <c r="N208" s="2"/>
     </row>
     <row r="209" ht="22.5" customHeight="1" spans="1:14">
       <c r="A209" s="13" t="s">
@@ -13073,7 +13067,7 @@
       <c r="M209" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N209" s="18"/>
+      <c r="N209" s="2"/>
     </row>
     <row r="210" ht="22.5" customHeight="1" spans="1:14">
       <c r="A210" s="13" t="s">
@@ -13115,7 +13109,7 @@
       <c r="M210" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N210" s="18"/>
+      <c r="N210" s="2"/>
     </row>
     <row r="211" ht="22.5" customHeight="1" spans="1:14">
       <c r="A211" s="13" t="s">
@@ -13157,7 +13151,7 @@
       <c r="M211" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N211" s="18"/>
+      <c r="N211" s="2"/>
     </row>
     <row r="212" ht="22.5" customHeight="1" spans="1:14">
       <c r="A212" s="13" t="s">
@@ -13199,7 +13193,7 @@
       <c r="M212" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N212" s="18"/>
+      <c r="N212" s="2"/>
     </row>
     <row r="213" ht="22.5" customHeight="1" spans="1:14">
       <c r="A213" s="13" t="s">
@@ -13241,7 +13235,7 @@
       <c r="M213" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N213" s="18"/>
+      <c r="N213" s="2"/>
     </row>
     <row r="214" ht="22.5" customHeight="1" spans="1:14">
       <c r="A214" s="13" t="s">
@@ -13283,7 +13277,7 @@
       <c r="M214" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N214" s="18"/>
+      <c r="N214" s="2"/>
     </row>
     <row r="215" ht="22.5" customHeight="1" spans="1:14">
       <c r="A215" s="13" t="s">
@@ -13325,7 +13319,7 @@
       <c r="M215" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N215" s="18"/>
+      <c r="N215" s="2"/>
     </row>
     <row r="216" ht="22.5" customHeight="1" spans="1:14">
       <c r="A216" s="13" t="s">
@@ -13367,7 +13361,7 @@
       <c r="M216" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N216" s="18"/>
+      <c r="N216" s="2"/>
     </row>
     <row r="217" ht="22.5" customHeight="1" spans="1:14">
       <c r="A217" s="13" t="s">
@@ -13409,7 +13403,7 @@
       <c r="M217" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N217" s="18"/>
+      <c r="N217" s="2"/>
     </row>
     <row r="218" ht="22.5" customHeight="1" spans="1:14">
       <c r="A218" s="13" t="s">
@@ -13451,7 +13445,7 @@
       <c r="M218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N218" s="18"/>
+      <c r="N218" s="2"/>
     </row>
     <row r="219" ht="22.5" customHeight="1" spans="1:14">
       <c r="A219" s="13" t="s">
@@ -13493,7 +13487,7 @@
       <c r="M219" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N219" s="18"/>
+      <c r="N219" s="2"/>
     </row>
     <row r="220" ht="22.5" customHeight="1" spans="1:14">
       <c r="A220" s="13" t="s">
@@ -13535,7 +13529,7 @@
       <c r="M220" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N220" s="18"/>
+      <c r="N220" s="2"/>
     </row>
     <row r="221" ht="22.5" customHeight="1" spans="1:14">
       <c r="A221" s="13" t="s">
@@ -13577,7 +13571,7 @@
       <c r="M221" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N221" s="18"/>
+      <c r="N221" s="2"/>
     </row>
     <row r="222" ht="22.5" customHeight="1" spans="1:14">
       <c r="A222" s="13" t="s">
@@ -13619,7 +13613,7 @@
       <c r="M222" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N222" s="18"/>
+      <c r="N222" s="2"/>
     </row>
     <row r="223" ht="22.5" customHeight="1" spans="1:14">
       <c r="A223" s="13" t="s">
@@ -13661,7 +13655,7 @@
       <c r="M223" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N223" s="18"/>
+      <c r="N223" s="2"/>
     </row>
     <row r="224" ht="22.5" customHeight="1" spans="1:14">
       <c r="A224" s="13" t="s">
@@ -13703,7 +13697,7 @@
       <c r="M224" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N224" s="18"/>
+      <c r="N224" s="2"/>
     </row>
     <row r="225" ht="22.5" customHeight="1" spans="1:14">
       <c r="A225" s="13" t="s">
@@ -13745,7 +13739,7 @@
       <c r="M225" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N225" s="18"/>
+      <c r="N225" s="2"/>
     </row>
     <row r="226" ht="22.5" customHeight="1" spans="1:14">
       <c r="A226" s="13" t="s">
@@ -13787,7 +13781,7 @@
       <c r="M226" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N226" s="18"/>
+      <c r="N226" s="2"/>
     </row>
     <row r="227" ht="22.5" customHeight="1" spans="1:14">
       <c r="A227" s="13" t="s">
@@ -13829,7 +13823,7 @@
       <c r="M227" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N227" s="18"/>
+      <c r="N227" s="2"/>
     </row>
     <row r="228" ht="22.5" customHeight="1" spans="1:14">
       <c r="A228" s="13" t="s">
@@ -13871,7 +13865,7 @@
       <c r="M228" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N228" s="18"/>
+      <c r="N228" s="2"/>
     </row>
     <row r="229" ht="22.5" customHeight="1" spans="1:14">
       <c r="A229" s="13" t="s">
@@ -13913,7 +13907,7 @@
       <c r="M229" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N229" s="18"/>
+      <c r="N229" s="2"/>
     </row>
     <row r="230" ht="22.5" customHeight="1" spans="1:14">
       <c r="A230" s="13" t="s">
@@ -13955,7 +13949,7 @@
       <c r="M230" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N230" s="18"/>
+      <c r="N230" s="2"/>
     </row>
     <row r="231" ht="22.5" customHeight="1" spans="1:14">
       <c r="A231" s="13" t="s">
@@ -13997,7 +13991,7 @@
       <c r="M231" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N231" s="18"/>
+      <c r="N231" s="2"/>
     </row>
     <row r="232" ht="22.5" customHeight="1" spans="1:14">
       <c r="A232" s="13" t="s">
@@ -14039,7 +14033,7 @@
       <c r="M232" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N232" s="18"/>
+      <c r="N232" s="2"/>
     </row>
     <row r="233" ht="22.5" customHeight="1" spans="1:14">
       <c r="A233" s="13" t="s">
@@ -14081,7 +14075,7 @@
       <c r="M233" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N233" s="18"/>
+      <c r="N233" s="2"/>
     </row>
     <row r="234" ht="22.5" customHeight="1" spans="1:14">
       <c r="A234" s="13" t="s">
@@ -14123,7 +14117,7 @@
       <c r="M234" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N234" s="18"/>
+      <c r="N234" s="2"/>
     </row>
     <row r="235" ht="22.5" customHeight="1" spans="1:14">
       <c r="A235" s="13" t="s">
@@ -14165,7 +14159,7 @@
       <c r="M235" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N235" s="18"/>
+      <c r="N235" s="2"/>
     </row>
     <row r="236" ht="22.5" customHeight="1" spans="1:14">
       <c r="A236" s="13" t="s">
@@ -14207,10 +14201,10 @@
       <c r="M236" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N236" s="18"/>
+      <c r="N236" s="2"/>
     </row>
     <row r="237" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A237" s="20" t="s">
+      <c r="A237" s="18" t="s">
         <v>284</v>
       </c>
       <c r="B237" s="15">
@@ -14249,7 +14243,7 @@
       <c r="M237" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N237" s="18"/>
+      <c r="N237" s="2"/>
     </row>
     <row r="238" ht="22.5" customHeight="1" spans="1:14">
       <c r="A238" s="13" t="s">
@@ -14291,7 +14285,7 @@
       <c r="M238" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N238" s="18"/>
+      <c r="N238" s="2"/>
     </row>
     <row r="239" ht="22.5" customHeight="1" spans="1:14">
       <c r="A239" s="13" t="s">
@@ -14333,7 +14327,7 @@
       <c r="M239" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N239" s="18"/>
+      <c r="N239" s="2"/>
     </row>
     <row r="240" ht="22.5" customHeight="1" spans="1:14">
       <c r="A240" s="13" t="s">
@@ -14375,7 +14369,7 @@
       <c r="M240" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N240" s="18"/>
+      <c r="N240" s="2"/>
     </row>
     <row r="241" ht="22.5" customHeight="1" spans="1:14">
       <c r="A241" s="13" t="s">
@@ -14417,7 +14411,7 @@
       <c r="M241" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N241" s="18"/>
+      <c r="N241" s="2"/>
     </row>
     <row r="242" ht="22.5" customHeight="1" spans="1:14">
       <c r="A242" s="13" t="s">
@@ -14459,10 +14453,10 @@
       <c r="M242" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N242" s="18"/>
+      <c r="N242" s="2"/>
     </row>
     <row r="243" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A243" s="20" t="s">
+      <c r="A243" s="18" t="s">
         <v>290</v>
       </c>
       <c r="B243" s="14">
@@ -14501,10 +14495,10 @@
       <c r="M243" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N243" s="18"/>
+      <c r="N243" s="2"/>
     </row>
     <row r="244" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A244" s="20" t="s">
+      <c r="A244" s="18" t="s">
         <v>291</v>
       </c>
       <c r="B244" s="14">
@@ -14543,7 +14537,7 @@
       <c r="M244" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N244" s="18"/>
+      <c r="N244" s="2"/>
     </row>
     <row r="245" ht="22.5" customHeight="1" spans="1:14">
       <c r="A245" s="13" t="s">
@@ -14585,7 +14579,7 @@
       <c r="M245" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N245" s="18"/>
+      <c r="N245" s="2"/>
     </row>
     <row r="246" ht="22.5" customHeight="1" spans="1:14">
       <c r="A246" s="13" t="s">
@@ -14627,7 +14621,7 @@
       <c r="M246" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N246" s="18"/>
+      <c r="N246" s="2"/>
     </row>
     <row r="247" ht="22.5" customHeight="1" spans="1:14">
       <c r="A247" s="13" t="s">
@@ -14669,7 +14663,7 @@
       <c r="M247" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N247" s="18"/>
+      <c r="N247" s="2"/>
     </row>
     <row r="248" ht="22.5" customHeight="1" spans="1:14">
       <c r="A248" s="13" t="s">
@@ -14711,7 +14705,7 @@
       <c r="M248" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N248" s="18"/>
+      <c r="N248" s="2"/>
     </row>
     <row r="249" ht="22.5" customHeight="1" spans="1:14">
       <c r="A249" s="13" t="s">
@@ -14753,7 +14747,7 @@
       <c r="M249" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N249" s="18"/>
+      <c r="N249" s="2"/>
     </row>
     <row r="250" ht="22.5" customHeight="1" spans="1:14">
       <c r="A250" s="13" t="s">
@@ -14795,7 +14789,7 @@
       <c r="M250" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N250" s="18"/>
+      <c r="N250" s="2"/>
     </row>
     <row r="251" ht="22.5" customHeight="1" spans="1:14">
       <c r="A251" s="13" t="s">
@@ -14837,7 +14831,7 @@
       <c r="M251" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N251" s="18"/>
+      <c r="N251" s="2"/>
     </row>
     <row r="252" ht="22.5" customHeight="1" spans="1:14">
       <c r="A252" s="13" t="s">
@@ -14879,7 +14873,7 @@
       <c r="M252" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N252" s="18"/>
+      <c r="N252" s="2"/>
     </row>
     <row r="253" ht="22.5" customHeight="1" spans="1:14">
       <c r="A253" s="13" t="s">
@@ -14921,7 +14915,7 @@
       <c r="M253" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N253" s="18"/>
+      <c r="N253" s="2"/>
     </row>
     <row r="254" ht="22.5" customHeight="1" spans="1:14">
       <c r="A254" s="13" t="s">
@@ -14963,7 +14957,7 @@
       <c r="M254" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N254" s="18"/>
+      <c r="N254" s="2"/>
     </row>
     <row r="255" ht="22.5" customHeight="1" spans="1:14">
       <c r="A255" s="13" t="s">
@@ -15005,7 +14999,7 @@
       <c r="M255" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N255" s="18"/>
+      <c r="N255" s="2"/>
     </row>
     <row r="256" ht="22.5" customHeight="1" spans="1:14">
       <c r="A256" s="13" t="s">
@@ -15047,7 +15041,7 @@
       <c r="M256" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N256" s="18"/>
+      <c r="N256" s="2"/>
     </row>
     <row r="257" ht="22.5" customHeight="1" spans="1:14">
       <c r="A257" s="13" t="s">
@@ -15089,7 +15083,7 @@
       <c r="M257" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N257" s="18"/>
+      <c r="N257" s="2"/>
     </row>
     <row r="258" ht="22.5" customHeight="1" spans="1:14">
       <c r="A258" s="13" t="s">
@@ -15131,7 +15125,7 @@
       <c r="M258" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N258" s="18"/>
+      <c r="N258" s="2"/>
     </row>
     <row r="259" ht="22.5" customHeight="1" spans="1:14">
       <c r="A259" s="13" t="s">
@@ -15173,7 +15167,7 @@
       <c r="M259" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N259" s="18"/>
+      <c r="N259" s="2"/>
     </row>
     <row r="260" ht="22.5" customHeight="1" spans="1:14">
       <c r="A260" s="13" t="s">
@@ -15215,7 +15209,7 @@
       <c r="M260" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N260" s="18"/>
+      <c r="N260" s="2"/>
     </row>
     <row r="261" ht="22.5" customHeight="1" spans="1:14">
       <c r="A261" s="13" t="s">
@@ -15257,7 +15251,7 @@
       <c r="M261" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N261" s="18"/>
+      <c r="N261" s="2"/>
     </row>
     <row r="262" ht="22.5" customHeight="1" spans="1:14">
       <c r="A262" s="13" t="s">
@@ -15299,7 +15293,7 @@
       <c r="M262" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N262" s="18"/>
+      <c r="N262" s="2"/>
     </row>
     <row r="263" ht="22.5" customHeight="1" spans="1:14">
       <c r="A263" s="13" t="s">
@@ -15341,7 +15335,7 @@
       <c r="M263" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N263" s="18"/>
+      <c r="N263" s="2"/>
     </row>
     <row r="264" ht="22.5" customHeight="1" spans="1:14">
       <c r="A264" s="13" t="s">
@@ -15383,7 +15377,7 @@
       <c r="M264" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N264" s="18"/>
+      <c r="N264" s="2"/>
     </row>
     <row r="265" ht="22.5" customHeight="1" spans="1:14">
       <c r="A265" s="13" t="s">
@@ -15425,7 +15419,7 @@
       <c r="M265" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N265" s="18"/>
+      <c r="N265" s="2"/>
     </row>
     <row r="266" ht="22.5" customHeight="1" spans="1:14">
       <c r="A266" s="13" t="s">
@@ -15467,7 +15461,7 @@
       <c r="M266" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N266" s="18"/>
+      <c r="N266" s="2"/>
     </row>
     <row r="267" ht="22.5" customHeight="1" spans="1:14">
       <c r="A267" s="13" t="s">
@@ -15509,7 +15503,7 @@
       <c r="M267" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N267" s="18"/>
+      <c r="N267" s="2"/>
     </row>
     <row r="268" ht="22.5" customHeight="1" spans="1:14">
       <c r="A268" s="13" t="s">
@@ -15551,7 +15545,7 @@
       <c r="M268" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N268" s="18"/>
+      <c r="N268" s="2"/>
     </row>
     <row r="269" ht="22.5" customHeight="1" spans="1:14">
       <c r="A269" s="13" t="s">
@@ -15593,7 +15587,7 @@
       <c r="M269" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N269" s="18"/>
+      <c r="N269" s="2"/>
     </row>
     <row r="270" ht="22.5" customHeight="1" spans="1:14">
       <c r="A270" s="13" t="s">
@@ -15635,7 +15629,7 @@
       <c r="M270" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N270" s="18"/>
+      <c r="N270" s="2"/>
     </row>
     <row r="271" ht="22.5" customHeight="1" spans="1:14">
       <c r="A271" s="13" t="s">
@@ -15677,7 +15671,7 @@
       <c r="M271" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N271" s="18"/>
+      <c r="N271" s="2"/>
     </row>
     <row r="272" ht="22.5" customHeight="1" spans="1:14">
       <c r="A272" s="13" t="s">
@@ -15719,7 +15713,7 @@
       <c r="M272" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N272" s="18"/>
+      <c r="N272" s="2"/>
     </row>
     <row r="273" ht="22.5" customHeight="1" spans="1:14">
       <c r="A273" s="13" t="s">
@@ -15761,7 +15755,7 @@
       <c r="M273" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N273" s="18"/>
+      <c r="N273" s="2"/>
     </row>
     <row r="274" ht="22.5" customHeight="1" spans="1:14">
       <c r="A274" s="13" t="s">
@@ -15803,7 +15797,7 @@
       <c r="M274" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N274" s="18"/>
+      <c r="N274" s="2"/>
     </row>
     <row r="275" ht="22.5" customHeight="1" spans="1:14">
       <c r="A275" s="13" t="s">
@@ -15845,7 +15839,7 @@
       <c r="M275" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N275" s="18"/>
+      <c r="N275" s="2"/>
     </row>
     <row r="276" ht="22.5" customHeight="1" spans="1:14">
       <c r="A276" s="13" t="s">
@@ -15887,7 +15881,7 @@
       <c r="M276" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N276" s="18"/>
+      <c r="N276" s="2"/>
     </row>
     <row r="277" ht="22.5" customHeight="1" spans="1:14">
       <c r="A277" s="13" t="s">
@@ -15929,7 +15923,7 @@
       <c r="M277" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N277" s="18"/>
+      <c r="N277" s="2"/>
     </row>
     <row r="278" ht="22.5" customHeight="1" spans="1:14">
       <c r="A278" s="13" t="s">
@@ -15971,7 +15965,7 @@
       <c r="M278" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N278" s="18"/>
+      <c r="N278" s="2"/>
     </row>
     <row r="279" ht="22.5" customHeight="1" spans="1:14">
       <c r="A279" s="13" t="s">
@@ -16013,7 +16007,7 @@
       <c r="M279" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N279" s="18"/>
+      <c r="N279" s="2"/>
     </row>
     <row r="280" ht="22.5" customHeight="1" spans="1:14">
       <c r="A280" s="13" t="s">
@@ -16055,7 +16049,7 @@
       <c r="M280" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N280" s="18"/>
+      <c r="N280" s="2"/>
     </row>
     <row r="281" ht="22.5" customHeight="1" spans="1:14">
       <c r="A281" s="13" t="s">
@@ -16097,7 +16091,7 @@
       <c r="M281" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N281" s="18"/>
+      <c r="N281" s="2"/>
     </row>
     <row r="282" ht="22.5" customHeight="1" spans="1:14">
       <c r="A282" s="13" t="s">
@@ -16139,7 +16133,7 @@
       <c r="M282" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N282" s="18"/>
+      <c r="N282" s="2"/>
     </row>
     <row r="283" ht="22.5" customHeight="1" spans="1:14">
       <c r="A283" s="13" t="s">
@@ -16181,7 +16175,7 @@
       <c r="M283" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N283" s="18"/>
+      <c r="N283" s="2"/>
     </row>
     <row r="284" ht="22.5" customHeight="1" spans="1:14">
       <c r="A284" s="13" t="s">
@@ -16223,7 +16217,7 @@
       <c r="M284" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N284" s="18"/>
+      <c r="N284" s="2"/>
     </row>
     <row r="285" ht="22.5" customHeight="1" spans="1:14">
       <c r="A285" s="13" t="s">
@@ -16265,7 +16259,7 @@
       <c r="M285" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N285" s="18"/>
+      <c r="N285" s="2"/>
     </row>
     <row r="286" ht="22.5" customHeight="1" spans="1:14">
       <c r="A286" s="13" t="s">
@@ -16307,7 +16301,7 @@
       <c r="M286" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N286" s="18"/>
+      <c r="N286" s="2"/>
     </row>
     <row r="287" ht="22.5" customHeight="1" spans="1:14">
       <c r="A287" s="13" t="s">
@@ -16349,7 +16343,7 @@
       <c r="M287" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N287" s="18"/>
+      <c r="N287" s="2"/>
     </row>
     <row r="288" ht="22.5" customHeight="1" spans="1:14">
       <c r="A288" s="13" t="s">
@@ -16391,7 +16385,7 @@
       <c r="M288" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N288" s="18"/>
+      <c r="N288" s="2"/>
     </row>
     <row r="289" ht="22.5" customHeight="1" spans="1:14">
       <c r="A289" s="13" t="s">
@@ -16433,7 +16427,7 @@
       <c r="M289" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N289" s="18"/>
+      <c r="N289" s="2"/>
     </row>
     <row r="290" ht="22.5" customHeight="1" spans="1:14">
       <c r="A290" s="13" t="s">
@@ -16475,7 +16469,7 @@
       <c r="M290" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N290" s="18"/>
+      <c r="N290" s="2"/>
     </row>
     <row r="291" ht="22.5" customHeight="1" spans="1:14">
       <c r="A291" s="13" t="s">
@@ -16517,7 +16511,7 @@
       <c r="M291" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N291" s="18"/>
+      <c r="N291" s="2"/>
     </row>
     <row r="292" ht="22.5" customHeight="1" spans="1:14">
       <c r="A292" s="13" t="s">
@@ -16559,7 +16553,7 @@
       <c r="M292" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N292" s="18"/>
+      <c r="N292" s="2"/>
     </row>
     <row r="293" ht="22.5" customHeight="1" spans="1:14">
       <c r="A293" s="13" t="s">
@@ -16601,7 +16595,7 @@
       <c r="M293" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N293" s="18"/>
+      <c r="N293" s="2"/>
     </row>
     <row r="294" ht="22.5" customHeight="1" spans="1:14">
       <c r="A294" s="13" t="s">
@@ -16643,7 +16637,7 @@
       <c r="M294" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N294" s="18"/>
+      <c r="N294" s="2"/>
     </row>
     <row r="295" ht="22.5" customHeight="1" spans="1:14">
       <c r="A295" s="13" t="s">
@@ -16685,7 +16679,7 @@
       <c r="M295" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N295" s="18"/>
+      <c r="N295" s="2"/>
     </row>
     <row r="296" ht="22.5" customHeight="1" spans="1:14">
       <c r="A296" s="13" t="s">
@@ -16727,7 +16721,7 @@
       <c r="M296" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N296" s="18"/>
+      <c r="N296" s="2"/>
     </row>
     <row r="297" ht="22.5" customHeight="1" spans="1:14">
       <c r="A297" s="13" t="s">
@@ -16769,7 +16763,7 @@
       <c r="M297" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N297" s="18"/>
+      <c r="N297" s="2"/>
     </row>
     <row r="298" ht="22.5" customHeight="1" spans="1:14">
       <c r="A298" s="13" t="s">
@@ -16811,7 +16805,7 @@
       <c r="M298" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N298" s="18"/>
+      <c r="N298" s="2"/>
     </row>
     <row r="299" ht="22.5" customHeight="1" spans="1:14">
       <c r="A299" s="13" t="s">
@@ -16853,7 +16847,7 @@
       <c r="M299" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N299" s="18"/>
+      <c r="N299" s="2"/>
     </row>
     <row r="300" ht="22.5" customHeight="1" spans="1:14">
       <c r="A300" s="13" t="s">
@@ -16895,7 +16889,7 @@
       <c r="M300" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N300" s="18"/>
+      <c r="N300" s="2"/>
     </row>
     <row r="301" ht="22.5" customHeight="1" spans="1:14">
       <c r="A301" s="13" t="s">
@@ -16937,7 +16931,7 @@
       <c r="M301" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N301" s="18"/>
+      <c r="N301" s="2"/>
     </row>
     <row r="302" ht="22.5" customHeight="1" spans="1:14">
       <c r="A302" s="13" t="s">
@@ -16979,7 +16973,7 @@
       <c r="M302" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N302" s="18"/>
+      <c r="N302" s="2"/>
     </row>
     <row r="303" ht="22.5" customHeight="1" spans="1:14">
       <c r="A303" s="13" t="s">
@@ -17021,7 +17015,7 @@
       <c r="M303" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N303" s="18"/>
+      <c r="N303" s="2"/>
     </row>
     <row r="304" ht="22.5" customHeight="1" spans="1:14">
       <c r="A304" s="13" t="s">
@@ -17063,7 +17057,7 @@
       <c r="M304" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N304" s="18"/>
+      <c r="N304" s="2"/>
     </row>
     <row r="305" ht="22.5" customHeight="1" spans="1:14">
       <c r="A305" s="13" t="s">
@@ -17105,7 +17099,7 @@
       <c r="M305" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N305" s="18"/>
+      <c r="N305" s="2"/>
     </row>
     <row r="306" ht="22.5" customHeight="1" spans="1:14">
       <c r="A306" s="13" t="s">
@@ -17147,7 +17141,7 @@
       <c r="M306" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N306" s="18"/>
+      <c r="N306" s="2"/>
     </row>
     <row r="307" ht="22.5" customHeight="1" spans="1:14">
       <c r="A307" s="13" t="s">
@@ -17189,7 +17183,7 @@
       <c r="M307" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N307" s="18"/>
+      <c r="N307" s="2"/>
     </row>
     <row r="308" ht="22.5" customHeight="1" spans="1:14">
       <c r="A308" s="13" t="s">
@@ -17231,7 +17225,7 @@
       <c r="M308" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N308" s="18"/>
+      <c r="N308" s="2"/>
     </row>
     <row r="309" ht="22.5" customHeight="1" spans="1:14">
       <c r="A309" s="13" t="s">
@@ -17273,7 +17267,7 @@
       <c r="M309" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N309" s="18"/>
+      <c r="N309" s="2"/>
     </row>
     <row r="310" ht="22.5" customHeight="1" spans="1:14">
       <c r="A310" s="13" t="s">
@@ -17315,7 +17309,7 @@
       <c r="M310" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N310" s="18"/>
+      <c r="N310" s="2"/>
     </row>
     <row r="311" ht="22.5" customHeight="1" spans="1:14">
       <c r="A311" s="13" t="s">
@@ -17357,7 +17351,7 @@
       <c r="M311" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N311" s="18"/>
+      <c r="N311" s="2"/>
     </row>
     <row r="312" ht="22.5" customHeight="1" spans="1:14">
       <c r="A312" s="13" t="s">
@@ -17399,7 +17393,7 @@
       <c r="M312" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N312" s="18"/>
+      <c r="N312" s="2"/>
     </row>
     <row r="313" ht="22.5" customHeight="1" spans="1:14">
       <c r="A313" s="13" t="s">
@@ -17441,7 +17435,7 @@
       <c r="M313" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N313" s="18"/>
+      <c r="N313" s="2"/>
     </row>
     <row r="314" ht="22.5" customHeight="1" spans="1:14">
       <c r="A314" s="13" t="s">
@@ -17483,7 +17477,7 @@
       <c r="M314" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N314" s="18"/>
+      <c r="N314" s="2"/>
     </row>
     <row r="315" ht="22.5" customHeight="1" spans="1:14">
       <c r="A315" s="13" t="s">
@@ -17525,7 +17519,7 @@
       <c r="M315" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N315" s="18"/>
+      <c r="N315" s="2"/>
     </row>
     <row r="316" ht="22.5" customHeight="1" spans="1:14">
       <c r="A316" s="13" t="s">
@@ -17567,7 +17561,7 @@
       <c r="M316" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N316" s="18"/>
+      <c r="N316" s="2"/>
     </row>
     <row r="317" ht="22.5" customHeight="1" spans="1:14">
       <c r="A317" s="13" t="s">
@@ -17609,7 +17603,7 @@
       <c r="M317" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N317" s="18"/>
+      <c r="N317" s="2"/>
     </row>
     <row r="318" ht="22.5" customHeight="1" spans="1:14">
       <c r="A318" s="13" t="s">
@@ -17651,7 +17645,7 @@
       <c r="M318" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N318" s="18"/>
+      <c r="N318" s="2"/>
     </row>
     <row r="319" ht="22.5" customHeight="1" spans="1:14">
       <c r="A319" s="13" t="s">
@@ -17693,7 +17687,7 @@
       <c r="M319" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N319" s="18"/>
+      <c r="N319" s="2"/>
     </row>
     <row r="320" ht="22.5" customHeight="1" spans="1:14">
       <c r="A320" s="13" t="s">
@@ -17735,7 +17729,7 @@
       <c r="M320" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N320" s="18"/>
+      <c r="N320" s="2"/>
     </row>
     <row r="321" ht="22.5" customHeight="1" spans="1:14">
       <c r="A321" s="13" t="s">
@@ -17777,7 +17771,7 @@
       <c r="M321" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N321" s="18"/>
+      <c r="N321" s="2"/>
     </row>
     <row r="322" ht="22.5" customHeight="1" spans="1:14">
       <c r="A322" s="13" t="s">
@@ -17819,7 +17813,7 @@
       <c r="M322" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N322" s="18"/>
+      <c r="N322" s="2"/>
     </row>
     <row r="323" ht="22.5" customHeight="1" spans="1:14">
       <c r="A323" s="13" t="s">
@@ -17861,7 +17855,7 @@
       <c r="M323" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N323" s="18"/>
+      <c r="N323" s="2"/>
     </row>
     <row r="324" ht="22.5" customHeight="1" spans="1:14">
       <c r="A324" s="13" t="s">
@@ -17903,7 +17897,7 @@
       <c r="M324" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N324" s="18"/>
+      <c r="N324" s="2"/>
     </row>
     <row r="325" ht="22.5" customHeight="1" spans="1:14">
       <c r="A325" s="13" t="s">
@@ -17945,10 +17939,10 @@
       <c r="M325" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N325" s="18"/>
+      <c r="N325" s="2"/>
     </row>
     <row r="326" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A326" s="20" t="s">
+      <c r="A326" s="18" t="s">
         <v>377</v>
       </c>
       <c r="B326" s="14">
@@ -17987,10 +17981,10 @@
       <c r="M326" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N326" s="18"/>
+      <c r="N326" s="2"/>
     </row>
     <row r="327" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A327" s="20" t="s">
+      <c r="A327" s="18" t="s">
         <v>378</v>
       </c>
       <c r="B327" s="14">
@@ -18029,7 +18023,7 @@
       <c r="M327" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N327" s="18"/>
+      <c r="N327" s="2"/>
     </row>
     <row r="328" ht="22.5" customHeight="1" spans="1:14">
       <c r="A328" s="13" t="s">
@@ -18071,7 +18065,7 @@
       <c r="M328" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N328" s="18"/>
+      <c r="N328" s="2"/>
     </row>
     <row r="329" ht="22.5" customHeight="1" spans="1:14">
       <c r="A329" s="13" t="s">
@@ -18113,7 +18107,7 @@
       <c r="M329" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N329" s="18"/>
+      <c r="N329" s="2"/>
     </row>
     <row r="330" ht="22.5" customHeight="1" spans="1:14">
       <c r="A330" s="13" t="s">
@@ -18155,7 +18149,7 @@
       <c r="M330" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N330" s="18"/>
+      <c r="N330" s="2"/>
     </row>
     <row r="331" ht="22.5" customHeight="1" spans="1:14">
       <c r="A331" s="13" t="s">
@@ -18197,7 +18191,7 @@
       <c r="M331" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N331" s="18"/>
+      <c r="N331" s="2"/>
     </row>
     <row r="332" ht="22.5" customHeight="1" spans="1:14">
       <c r="A332" s="13" t="s">
@@ -18239,7 +18233,7 @@
       <c r="M332" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N332" s="18"/>
+      <c r="N332" s="2"/>
     </row>
     <row r="333" ht="22.5" customHeight="1" spans="1:14">
       <c r="A333" s="13" t="s">
@@ -18281,7 +18275,7 @@
       <c r="M333" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N333" s="18"/>
+      <c r="N333" s="2"/>
     </row>
     <row r="334" ht="22.5" customHeight="1" spans="1:14">
       <c r="A334" s="13" t="s">
@@ -18323,7 +18317,7 @@
       <c r="M334" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N334" s="18"/>
+      <c r="N334" s="2"/>
     </row>
     <row r="335" ht="22.5" customHeight="1" spans="1:14">
       <c r="A335" s="13" t="s">
@@ -18365,7 +18359,7 @@
       <c r="M335" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N335" s="18"/>
+      <c r="N335" s="2"/>
     </row>
     <row r="336" ht="22.5" customHeight="1" spans="1:14">
       <c r="A336" s="13" t="s">
@@ -18407,7 +18401,7 @@
       <c r="M336" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N336" s="18"/>
+      <c r="N336" s="2"/>
     </row>
     <row r="337" ht="22.5" customHeight="1" spans="1:14">
       <c r="A337" s="13" t="s">
@@ -18449,7 +18443,7 @@
       <c r="M337" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N337" s="18"/>
+      <c r="N337" s="2"/>
     </row>
     <row r="338" ht="22.5" customHeight="1" spans="1:14">
       <c r="A338" s="13" t="s">
@@ -18491,7 +18485,7 @@
       <c r="M338" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N338" s="18"/>
+      <c r="N338" s="2"/>
     </row>
     <row r="339" ht="22.5" customHeight="1" spans="1:14">
       <c r="A339" s="13" t="s">
@@ -18533,7 +18527,7 @@
       <c r="M339" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N339" s="18"/>
+      <c r="N339" s="2"/>
     </row>
     <row r="340" ht="22.5" customHeight="1" spans="1:14">
       <c r="A340" s="13" t="s">
@@ -18575,7 +18569,7 @@
       <c r="M340" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N340" s="18"/>
+      <c r="N340" s="2"/>
     </row>
     <row r="341" ht="22.5" customHeight="1" spans="1:14">
       <c r="A341" s="13" t="s">
@@ -18617,7 +18611,7 @@
       <c r="M341" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N341" s="18"/>
+      <c r="N341" s="2"/>
     </row>
     <row r="342" ht="22.5" customHeight="1" spans="1:14">
       <c r="A342" s="13" t="s">
@@ -18659,7 +18653,7 @@
       <c r="M342" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N342" s="18"/>
+      <c r="N342" s="2"/>
     </row>
     <row r="343" ht="22.5" customHeight="1" spans="1:14">
       <c r="A343" s="13" t="s">
@@ -18701,7 +18695,7 @@
       <c r="M343" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N343" s="18"/>
+      <c r="N343" s="2"/>
     </row>
     <row r="344" ht="22.5" customHeight="1" spans="1:14">
       <c r="A344" s="13" t="s">
@@ -18743,7 +18737,7 @@
       <c r="M344" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N344" s="18"/>
+      <c r="N344" s="2"/>
     </row>
     <row r="345" ht="22.5" customHeight="1" spans="1:14">
       <c r="A345" s="13" t="s">
@@ -18785,7 +18779,7 @@
       <c r="M345" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N345" s="18"/>
+      <c r="N345" s="2"/>
     </row>
     <row r="346" ht="22.5" customHeight="1" spans="1:14">
       <c r="A346" s="13" t="s">
@@ -18827,7 +18821,7 @@
       <c r="M346" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N346" s="18"/>
+      <c r="N346" s="2"/>
     </row>
     <row r="347" ht="22.5" customHeight="1" spans="1:14">
       <c r="A347" s="13" t="s">
@@ -18869,7 +18863,7 @@
       <c r="M347" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N347" s="18"/>
+      <c r="N347" s="2"/>
     </row>
     <row r="348" ht="22.5" customHeight="1" spans="1:14">
       <c r="A348" s="13" t="s">
@@ -18911,7 +18905,7 @@
       <c r="M348" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N348" s="18"/>
+      <c r="N348" s="2"/>
     </row>
     <row r="349" ht="22.5" customHeight="1" spans="1:14">
       <c r="A349" s="13" t="s">
@@ -18953,7 +18947,7 @@
       <c r="M349" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N349" s="18"/>
+      <c r="N349" s="2"/>
     </row>
     <row r="350" ht="22.5" customHeight="1" spans="1:14">
       <c r="A350" s="13" t="s">
@@ -18995,7 +18989,7 @@
       <c r="M350" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N350" s="18"/>
+      <c r="N350" s="2"/>
     </row>
     <row r="351" ht="22.5" customHeight="1" spans="1:14">
       <c r="A351" s="13" t="s">
@@ -19037,7 +19031,7 @@
       <c r="M351" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N351" s="18"/>
+      <c r="N351" s="2"/>
     </row>
     <row r="352" ht="22.5" customHeight="1" spans="1:14">
       <c r="A352" s="13" t="s">
@@ -19079,7 +19073,7 @@
       <c r="M352" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N352" s="18"/>
+      <c r="N352" s="2"/>
     </row>
     <row r="353" ht="22.5" customHeight="1" spans="1:14">
       <c r="A353" s="13" t="s">
@@ -19121,7 +19115,7 @@
       <c r="M353" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N353" s="18"/>
+      <c r="N353" s="2"/>
     </row>
     <row r="354" ht="22.5" customHeight="1" spans="1:14">
       <c r="A354" s="13" t="s">
@@ -19163,7 +19157,7 @@
       <c r="M354" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N354" s="18"/>
+      <c r="N354" s="2"/>
     </row>
     <row r="355" ht="22.5" customHeight="1" spans="1:14">
       <c r="A355" s="13" t="s">
@@ -19205,7 +19199,7 @@
       <c r="M355" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N355" s="18"/>
+      <c r="N355" s="2"/>
     </row>
     <row r="356" ht="22.5" customHeight="1" spans="1:14">
       <c r="A356" s="13" t="s">
@@ -19247,7 +19241,7 @@
       <c r="M356" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N356" s="18"/>
+      <c r="N356" s="2"/>
     </row>
     <row r="357" ht="22.5" customHeight="1" spans="1:14">
       <c r="A357" s="13" t="s">
@@ -19289,7 +19283,7 @@
       <c r="M357" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N357" s="18"/>
+      <c r="N357" s="2"/>
     </row>
     <row r="358" ht="22.5" customHeight="1" spans="1:14">
       <c r="A358" s="13" t="s">
@@ -19331,7 +19325,7 @@
       <c r="M358" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N358" s="18"/>
+      <c r="N358" s="2"/>
     </row>
     <row r="359" ht="22.5" customHeight="1" spans="1:14">
       <c r="A359" s="13" t="s">
@@ -19373,7 +19367,7 @@
       <c r="M359" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N359" s="18"/>
+      <c r="N359" s="2"/>
     </row>
     <row r="360" ht="22.5" customHeight="1" spans="1:14">
       <c r="A360" s="13" t="s">
@@ -19415,7 +19409,7 @@
       <c r="M360" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N360" s="18"/>
+      <c r="N360" s="2"/>
     </row>
     <row r="361" ht="22.5" customHeight="1" spans="1:14">
       <c r="A361" s="13" t="s">
@@ -19457,7 +19451,7 @@
       <c r="M361" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N361" s="18"/>
+      <c r="N361" s="2"/>
     </row>
     <row r="362" ht="22.5" customHeight="1" spans="1:14">
       <c r="A362" s="13" t="s">
@@ -19499,7 +19493,7 @@
       <c r="M362" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N362" s="18"/>
+      <c r="N362" s="2"/>
     </row>
     <row r="363" ht="22.5" customHeight="1" spans="1:14">
       <c r="A363" s="13" t="s">
@@ -19541,7 +19535,7 @@
       <c r="M363" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N363" s="18"/>
+      <c r="N363" s="2"/>
     </row>
     <row r="364" ht="22.5" customHeight="1" spans="1:14">
       <c r="A364" s="13" t="s">
@@ -19583,7 +19577,7 @@
       <c r="M364" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N364" s="18"/>
+      <c r="N364" s="2"/>
     </row>
     <row r="365" ht="22.5" customHeight="1" spans="1:14">
       <c r="A365" s="13" t="s">
@@ -19625,7 +19619,7 @@
       <c r="M365" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N365" s="18"/>
+      <c r="N365" s="2"/>
     </row>
     <row r="366" ht="22.5" customHeight="1" spans="1:14">
       <c r="A366" s="13" t="s">
@@ -19667,7 +19661,7 @@
       <c r="M366" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N366" s="18"/>
+      <c r="N366" s="2"/>
     </row>
     <row r="367" ht="22.5" customHeight="1" spans="1:14">
       <c r="A367" s="13" t="s">
@@ -19709,7 +19703,7 @@
       <c r="M367" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N367" s="18"/>
+      <c r="N367" s="2"/>
     </row>
     <row r="368" ht="22.5" customHeight="1" spans="1:14">
       <c r="A368" s="13" t="s">
@@ -19751,7 +19745,7 @@
       <c r="M368" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N368" s="18"/>
+      <c r="N368" s="2"/>
     </row>
     <row r="369" ht="22.5" customHeight="1" spans="1:14">
       <c r="A369" s="13" t="s">
@@ -19793,7 +19787,7 @@
       <c r="M369" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N369" s="18"/>
+      <c r="N369" s="2"/>
     </row>
     <row r="370" ht="22.5" customHeight="1" spans="1:14">
       <c r="A370" s="13" t="s">
@@ -19835,7 +19829,7 @@
       <c r="M370" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N370" s="18"/>
+      <c r="N370" s="2"/>
     </row>
     <row r="371" ht="22.5" customHeight="1" spans="1:14">
       <c r="A371" s="13" t="s">
@@ -19877,10 +19871,10 @@
       <c r="M371" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N371" s="18"/>
+      <c r="N371" s="2"/>
     </row>
     <row r="372" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A372" s="20" t="s">
+      <c r="A372" s="18" t="s">
         <v>424</v>
       </c>
       <c r="B372" s="15">
@@ -19919,7 +19913,7 @@
       <c r="M372" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N372" s="18"/>
+      <c r="N372" s="2"/>
     </row>
     <row r="373" ht="22.5" customHeight="1" spans="1:14">
       <c r="A373" s="13" t="s">
@@ -19961,7 +19955,7 @@
       <c r="M373" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N373" s="18"/>
+      <c r="N373" s="2"/>
     </row>
     <row r="374" ht="22.5" customHeight="1" spans="1:14">
       <c r="A374" s="13" t="s">
@@ -20003,7 +19997,7 @@
       <c r="M374" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N374" s="18"/>
+      <c r="N374" s="2"/>
     </row>
     <row r="375" ht="22.5" customHeight="1" spans="1:14">
       <c r="A375" s="13" t="s">
@@ -20045,7 +20039,7 @@
       <c r="M375" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N375" s="18"/>
+      <c r="N375" s="2"/>
     </row>
     <row r="376" ht="22.5" customHeight="1" spans="1:14">
       <c r="A376" s="13" t="s">
@@ -20087,7 +20081,7 @@
       <c r="M376" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N376" s="18"/>
+      <c r="N376" s="2"/>
     </row>
     <row r="377" ht="22.5" customHeight="1" spans="1:14">
       <c r="A377" s="13" t="s">
@@ -20129,7 +20123,7 @@
       <c r="M377" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N377" s="18"/>
+      <c r="N377" s="2"/>
     </row>
     <row r="378" ht="22.5" customHeight="1" spans="1:14">
       <c r="A378" s="13" t="s">
@@ -20171,7 +20165,7 @@
       <c r="M378" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N378" s="18"/>
+      <c r="N378" s="2"/>
     </row>
     <row r="379" ht="22.5" customHeight="1" spans="1:14">
       <c r="A379" s="13" t="s">
@@ -20213,7 +20207,7 @@
       <c r="M379" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N379" s="18"/>
+      <c r="N379" s="2"/>
     </row>
     <row r="380" ht="22.5" customHeight="1" spans="1:14">
       <c r="A380" s="13" t="s">
@@ -20255,7 +20249,7 @@
       <c r="M380" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N380" s="18"/>
+      <c r="N380" s="2"/>
     </row>
     <row r="381" ht="22.5" customHeight="1" spans="1:14">
       <c r="A381" s="13" t="s">
@@ -20297,7 +20291,7 @@
       <c r="M381" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N381" s="18"/>
+      <c r="N381" s="2"/>
     </row>
     <row r="382" ht="22.5" customHeight="1" spans="1:14">
       <c r="A382" s="13" t="s">
@@ -20339,7 +20333,7 @@
       <c r="M382" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N382" s="18"/>
+      <c r="N382" s="2"/>
     </row>
     <row r="383" ht="22.5" customHeight="1" spans="1:14">
       <c r="A383" s="13" t="s">
@@ -20381,7 +20375,7 @@
       <c r="M383" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N383" s="18"/>
+      <c r="N383" s="2"/>
     </row>
     <row r="384" ht="22.5" customHeight="1" spans="1:14">
       <c r="A384" s="13" t="s">
@@ -20423,7 +20417,7 @@
       <c r="M384" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N384" s="18"/>
+      <c r="N384" s="2"/>
     </row>
     <row r="385" ht="22.5" customHeight="1" spans="1:14">
       <c r="A385" s="13" t="s">
@@ -20465,7 +20459,7 @@
       <c r="M385" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N385" s="18"/>
+      <c r="N385" s="2"/>
     </row>
     <row r="386" ht="22.5" customHeight="1" spans="1:14">
       <c r="A386" s="13" t="s">
@@ -20507,7 +20501,7 @@
       <c r="M386" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N386" s="18"/>
+      <c r="N386" s="2"/>
     </row>
     <row r="387" ht="22.5" customHeight="1" spans="1:14">
       <c r="A387" s="13" t="s">
@@ -20549,7 +20543,7 @@
       <c r="M387" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N387" s="18"/>
+      <c r="N387" s="2"/>
     </row>
     <row r="388" ht="22.5" customHeight="1" spans="1:14">
       <c r="A388" s="13" t="s">
@@ -20591,7 +20585,7 @@
       <c r="M388" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N388" s="18"/>
+      <c r="N388" s="2"/>
     </row>
     <row r="389" ht="22.5" customHeight="1" spans="1:14">
       <c r="A389" s="13" t="s">
@@ -20633,7 +20627,7 @@
       <c r="M389" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N389" s="18"/>
+      <c r="N389" s="2"/>
     </row>
     <row r="390" ht="22.5" customHeight="1" spans="1:14">
       <c r="A390" s="13" t="s">
@@ -20675,7 +20669,7 @@
       <c r="M390" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N390" s="18"/>
+      <c r="N390" s="2"/>
     </row>
     <row r="391" ht="22.5" customHeight="1" spans="1:14">
       <c r="A391" s="13" t="s">
@@ -20717,7 +20711,7 @@
       <c r="M391" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N391" s="18"/>
+      <c r="N391" s="2"/>
     </row>
     <row r="392" ht="22.5" customHeight="1" spans="1:14">
       <c r="A392" s="13" t="s">
@@ -20759,7 +20753,7 @@
       <c r="M392" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N392" s="18"/>
+      <c r="N392" s="2"/>
     </row>
     <row r="393" ht="22.5" customHeight="1" spans="1:14">
       <c r="A393" s="13" t="s">
@@ -20801,7 +20795,7 @@
       <c r="M393" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N393" s="18"/>
+      <c r="N393" s="2"/>
     </row>
     <row r="394" ht="22.5" customHeight="1" spans="1:14">
       <c r="A394" s="13" t="s">
@@ -20843,7 +20837,7 @@
       <c r="M394" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N394" s="18"/>
+      <c r="N394" s="2"/>
     </row>
     <row r="395" ht="22.5" customHeight="1" spans="1:14">
       <c r="A395" s="13" t="s">
@@ -20885,7 +20879,7 @@
       <c r="M395" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N395" s="18"/>
+      <c r="N395" s="2"/>
     </row>
     <row r="396" ht="22.5" customHeight="1" spans="1:14">
       <c r="A396" s="13" t="s">
@@ -20927,7 +20921,7 @@
       <c r="M396" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N396" s="18"/>
+      <c r="N396" s="2"/>
     </row>
     <row r="397" ht="22.5" customHeight="1" spans="1:14">
       <c r="A397" s="13" t="s">
@@ -20969,10 +20963,10 @@
       <c r="M397" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N397" s="18"/>
+      <c r="N397" s="2"/>
     </row>
     <row r="398" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A398" s="21" t="s">
+      <c r="A398" s="19" t="s">
         <v>452</v>
       </c>
       <c r="B398" s="14">
@@ -21011,7 +21005,7 @@
       <c r="M398" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N398" s="18"/>
+      <c r="N398" s="2"/>
     </row>
     <row r="399" ht="22.5" customHeight="1" spans="1:14">
       <c r="A399" s="13" t="s">
@@ -21053,10 +21047,10 @@
       <c r="M399" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N399" s="18"/>
+      <c r="N399" s="2"/>
     </row>
     <row r="400" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A400" s="22" t="s">
+      <c r="A400" s="20" t="s">
         <v>454</v>
       </c>
       <c r="B400" s="14">
@@ -21095,7 +21089,7 @@
       <c r="M400" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N400" s="18"/>
+      <c r="N400" s="2"/>
     </row>
     <row r="401" ht="22.5" customHeight="1" spans="1:14">
       <c r="A401" s="13" t="s">
@@ -21137,7 +21131,7 @@
       <c r="M401" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N401" s="18"/>
+      <c r="N401" s="2"/>
     </row>
     <row r="402" ht="22.5" customHeight="1" spans="1:14">
       <c r="A402" s="13" t="s">
@@ -21179,7 +21173,7 @@
       <c r="M402" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N402" s="18"/>
+      <c r="N402" s="2"/>
     </row>
     <row r="403" ht="22.5" customHeight="1" spans="1:14">
       <c r="A403" s="13" t="s">
@@ -21221,7 +21215,7 @@
       <c r="M403" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N403" s="18"/>
+      <c r="N403" s="2"/>
     </row>
     <row r="404" ht="22.5" customHeight="1" spans="1:14">
       <c r="A404" s="13" t="s">
@@ -21263,7 +21257,7 @@
       <c r="M404" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N404" s="18"/>
+      <c r="N404" s="2"/>
     </row>
     <row r="405" ht="22.5" customHeight="1" spans="1:14">
       <c r="A405" s="13" t="s">
@@ -21305,7 +21299,7 @@
       <c r="M405" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N405" s="18"/>
+      <c r="N405" s="2"/>
     </row>
     <row r="406" ht="22.5" customHeight="1" spans="1:14">
       <c r="A406" s="13" t="s">
@@ -21347,7 +21341,7 @@
       <c r="M406" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N406" s="18"/>
+      <c r="N406" s="2"/>
     </row>
     <row r="407" ht="22.5" customHeight="1" spans="1:14">
       <c r="A407" s="13" t="s">
@@ -21389,7 +21383,7 @@
       <c r="M407" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N407" s="18"/>
+      <c r="N407" s="2"/>
     </row>
     <row r="408" ht="22.5" customHeight="1" spans="1:14">
       <c r="A408" s="13" t="s">
@@ -21431,7 +21425,7 @@
       <c r="M408" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N408" s="18"/>
+      <c r="N408" s="2"/>
     </row>
     <row r="409" ht="22.5" customHeight="1" spans="1:14">
       <c r="A409" s="13" t="s">
@@ -21473,7 +21467,7 @@
       <c r="M409" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N409" s="18"/>
+      <c r="N409" s="2"/>
     </row>
     <row r="410" ht="22.5" customHeight="1" spans="1:14">
       <c r="A410" s="13" t="s">
@@ -21515,7 +21509,7 @@
       <c r="M410" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N410" s="18"/>
+      <c r="N410" s="2"/>
     </row>
     <row r="411" ht="22.5" customHeight="1" spans="1:14">
       <c r="A411" s="13" t="s">
@@ -21557,7 +21551,7 @@
       <c r="M411" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N411" s="18"/>
+      <c r="N411" s="2"/>
     </row>
     <row r="412" ht="22.5" customHeight="1" spans="1:14">
       <c r="A412" s="13" t="s">
@@ -21599,7 +21593,7 @@
       <c r="M412" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N412" s="18"/>
+      <c r="N412" s="2"/>
     </row>
     <row r="413" ht="22.5" customHeight="1" spans="1:14">
       <c r="A413" s="13" t="s">
@@ -21641,7 +21635,7 @@
       <c r="M413" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N413" s="18"/>
+      <c r="N413" s="2"/>
     </row>
     <row r="414" ht="22.5" customHeight="1" spans="1:14">
       <c r="A414" s="13" t="s">
@@ -21683,7 +21677,7 @@
       <c r="M414" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N414" s="18"/>
+      <c r="N414" s="2"/>
     </row>
     <row r="415" ht="22.5" customHeight="1" spans="1:14">
       <c r="A415" s="13" t="s">
@@ -21725,7 +21719,7 @@
       <c r="M415" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N415" s="18"/>
+      <c r="N415" s="2"/>
     </row>
     <row r="416" ht="22.5" customHeight="1" spans="1:14">
       <c r="A416" s="13" t="s">
@@ -21767,7 +21761,7 @@
       <c r="M416" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N416" s="18"/>
+      <c r="N416" s="2"/>
     </row>
     <row r="417" ht="22.5" customHeight="1" spans="1:14">
       <c r="A417" s="13" t="s">
@@ -21809,7 +21803,7 @@
       <c r="M417" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N417" s="18"/>
+      <c r="N417" s="2"/>
     </row>
     <row r="418" ht="22.5" customHeight="1" spans="1:14">
       <c r="A418" s="13" t="s">
@@ -21851,7 +21845,7 @@
       <c r="M418" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N418" s="18"/>
+      <c r="N418" s="2"/>
     </row>
     <row r="419" ht="22.5" customHeight="1" spans="1:14">
       <c r="A419" s="13" t="s">
@@ -21893,7 +21887,7 @@
       <c r="M419" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N419" s="18"/>
+      <c r="N419" s="2"/>
     </row>
     <row r="420" ht="22.5" customHeight="1" spans="1:14">
       <c r="A420" s="13" t="s">
@@ -21935,7 +21929,7 @@
       <c r="M420" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N420" s="18"/>
+      <c r="N420" s="2"/>
     </row>
     <row r="421" ht="22.5" customHeight="1" spans="1:14">
       <c r="A421" s="13" t="s">
@@ -21977,7 +21971,7 @@
       <c r="M421" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N421" s="18"/>
+      <c r="N421" s="2"/>
     </row>
     <row r="422" ht="22.5" customHeight="1" spans="1:14">
       <c r="A422" s="13" t="s">
@@ -22019,7 +22013,7 @@
       <c r="M422" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N422" s="18"/>
+      <c r="N422" s="2"/>
     </row>
     <row r="423" ht="22.5" customHeight="1" spans="1:14">
       <c r="A423" s="13" t="s">
@@ -22061,7 +22055,7 @@
       <c r="M423" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N423" s="18"/>
+      <c r="N423" s="2"/>
     </row>
     <row r="424" ht="22.5" customHeight="1" spans="1:14">
       <c r="A424" s="13" t="s">
@@ -22103,7 +22097,7 @@
       <c r="M424" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N424" s="18"/>
+      <c r="N424" s="2"/>
     </row>
     <row r="425" ht="22.5" customHeight="1" spans="1:14">
       <c r="A425" s="13" t="s">
@@ -22145,7 +22139,7 @@
       <c r="M425" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N425" s="18"/>
+      <c r="N425" s="2"/>
     </row>
     <row r="426" ht="22.5" customHeight="1" spans="1:14">
       <c r="A426" s="13" t="s">
@@ -22187,7 +22181,7 @@
       <c r="M426" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N426" s="18"/>
+      <c r="N426" s="2"/>
     </row>
     <row r="427" ht="22.5" customHeight="1" spans="1:14">
       <c r="A427" s="13" t="s">
@@ -22229,7 +22223,7 @@
       <c r="M427" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N427" s="18"/>
+      <c r="N427" s="2"/>
     </row>
     <row r="428" ht="22.5" customHeight="1" spans="1:14">
       <c r="A428" s="13" t="s">
@@ -22271,7 +22265,7 @@
       <c r="M428" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N428" s="18"/>
+      <c r="N428" s="2"/>
     </row>
     <row r="429" ht="22.5" customHeight="1" spans="1:14">
       <c r="A429" s="13" t="s">
@@ -22313,7 +22307,7 @@
       <c r="M429" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N429" s="18"/>
+      <c r="N429" s="2"/>
     </row>
     <row r="430" ht="22.5" customHeight="1" spans="1:14">
       <c r="A430" s="13" t="s">
@@ -22355,7 +22349,7 @@
       <c r="M430" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N430" s="18"/>
+      <c r="N430" s="2"/>
     </row>
     <row r="431" ht="22.5" customHeight="1" spans="1:14">
       <c r="A431" s="13" t="s">
@@ -22397,7 +22391,7 @@
       <c r="M431" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N431" s="18"/>
+      <c r="N431" s="2"/>
     </row>
     <row r="432" ht="39" customHeight="1" spans="1:14">
       <c r="A432" s="13" t="s">
@@ -22439,7 +22433,7 @@
       <c r="M432" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N432" s="18"/>
+      <c r="N432" s="2"/>
     </row>
     <row r="433" ht="22.5" customHeight="1" spans="1:14">
       <c r="A433" s="13" t="s">
@@ -22481,7 +22475,7 @@
       <c r="M433" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N433" s="18"/>
+      <c r="N433" s="2"/>
     </row>
     <row r="434" ht="22.5" customHeight="1" spans="1:14">
       <c r="A434" s="13" t="s">
@@ -22523,7 +22517,7 @@
       <c r="M434" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N434" s="18"/>
+      <c r="N434" s="2"/>
     </row>
     <row r="435" ht="22.5" customHeight="1" spans="1:14">
       <c r="A435" s="13" t="s">
@@ -22565,7 +22559,7 @@
       <c r="M435" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N435" s="18"/>
+      <c r="N435" s="2"/>
     </row>
     <row r="436" ht="22.5" customHeight="1" spans="1:14">
       <c r="A436" s="13" t="s">
@@ -22607,10 +22601,10 @@
       <c r="M436" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N436" s="18"/>
+      <c r="N436" s="2"/>
     </row>
     <row r="437" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A437" s="21" t="s">
+      <c r="A437" s="19" t="s">
         <v>493</v>
       </c>
       <c r="B437" s="14">
@@ -22649,7 +22643,7 @@
       <c r="M437" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N437" s="18"/>
+      <c r="N437" s="2"/>
     </row>
     <row r="438" ht="22.5" customHeight="1" spans="1:14">
       <c r="A438" s="13" t="s">
@@ -22691,7 +22685,7 @@
       <c r="M438" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N438" s="18"/>
+      <c r="N438" s="2"/>
     </row>
     <row r="439" ht="22.5" customHeight="1" spans="1:14">
       <c r="A439" s="13" t="s">
@@ -22733,7 +22727,7 @@
       <c r="M439" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N439" s="18"/>
+      <c r="N439" s="2"/>
     </row>
     <row r="440" ht="22.5" customHeight="1" spans="1:14">
       <c r="A440" s="13" t="s">
@@ -22775,7 +22769,7 @@
       <c r="M440" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N440" s="18"/>
+      <c r="N440" s="2"/>
     </row>
     <row r="441" ht="22.5" customHeight="1" spans="1:14">
       <c r="A441" s="13" t="s">
@@ -22817,7 +22811,7 @@
       <c r="M441" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N441" s="18"/>
+      <c r="N441" s="2"/>
     </row>
     <row r="442" ht="22.5" customHeight="1" spans="1:14">
       <c r="A442" s="13" t="s">
@@ -22859,7 +22853,7 @@
       <c r="M442" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N442" s="18"/>
+      <c r="N442" s="2"/>
     </row>
     <row r="443" ht="22.5" customHeight="1" spans="1:14">
       <c r="A443" s="13" t="s">
@@ -22901,7 +22895,7 @@
       <c r="M443" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N443" s="18"/>
+      <c r="N443" s="2"/>
     </row>
     <row r="444" ht="22.5" customHeight="1" spans="1:14">
       <c r="A444" s="13" t="s">
@@ -22943,7 +22937,7 @@
       <c r="M444" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N444" s="18"/>
+      <c r="N444" s="2"/>
     </row>
     <row r="445" ht="22.5" customHeight="1" spans="1:14">
       <c r="A445" s="13" t="s">
@@ -22985,7 +22979,7 @@
       <c r="M445" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N445" s="18"/>
+      <c r="N445" s="2"/>
     </row>
     <row r="446" ht="22.5" customHeight="1" spans="1:14">
       <c r="A446" s="13" t="s">
@@ -23027,7 +23021,7 @@
       <c r="M446" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N446" s="18"/>
+      <c r="N446" s="2"/>
     </row>
     <row r="447" ht="22.5" customHeight="1" spans="1:14">
       <c r="A447" s="13" t="s">
@@ -23069,7 +23063,7 @@
       <c r="M447" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N447" s="18"/>
+      <c r="N447" s="2"/>
     </row>
     <row r="448" ht="22.5" customHeight="1" spans="1:14">
       <c r="A448" s="13" t="s">
@@ -23111,7 +23105,7 @@
       <c r="M448" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N448" s="18"/>
+      <c r="N448" s="2"/>
     </row>
     <row r="449" ht="22.5" customHeight="1" spans="1:14">
       <c r="A449" s="13" t="s">
@@ -23153,7 +23147,7 @@
       <c r="M449" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N449" s="18"/>
+      <c r="N449" s="2"/>
     </row>
     <row r="450" ht="22.5" customHeight="1" spans="1:14">
       <c r="A450" s="13" t="s">
@@ -23195,7 +23189,7 @@
       <c r="M450" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N450" s="18"/>
+      <c r="N450" s="2"/>
     </row>
     <row r="451" ht="22.5" customHeight="1" spans="1:14">
       <c r="A451" s="13" t="s">
@@ -23237,7 +23231,7 @@
       <c r="M451" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N451" s="18"/>
+      <c r="N451" s="2"/>
     </row>
     <row r="452" ht="22.5" customHeight="1" spans="1:14">
       <c r="A452" s="13" t="s">
@@ -23279,7 +23273,7 @@
       <c r="M452" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N452" s="18"/>
+      <c r="N452" s="2"/>
     </row>
     <row r="453" ht="22.5" customHeight="1" spans="1:14">
       <c r="A453" s="13" t="s">
@@ -23321,7 +23315,7 @@
       <c r="M453" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N453" s="18"/>
+      <c r="N453" s="2"/>
     </row>
     <row r="454" ht="22.5" customHeight="1" spans="1:14">
       <c r="A454" s="13" t="s">
@@ -23363,7 +23357,7 @@
       <c r="M454" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N454" s="18"/>
+      <c r="N454" s="2"/>
     </row>
     <row r="455" ht="22.5" customHeight="1" spans="1:14">
       <c r="A455" s="13" t="s">
@@ -23405,7 +23399,7 @@
       <c r="M455" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N455" s="18"/>
+      <c r="N455" s="2"/>
     </row>
     <row r="456" ht="22.5" customHeight="1" spans="1:14">
       <c r="A456" s="13" t="s">
@@ -23447,7 +23441,7 @@
       <c r="M456" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N456" s="18"/>
+      <c r="N456" s="2"/>
     </row>
     <row r="457" ht="22.5" customHeight="1" spans="1:14">
       <c r="A457" s="13" t="s">
@@ -23489,7 +23483,7 @@
       <c r="M457" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N457" s="18"/>
+      <c r="N457" s="2"/>
     </row>
     <row r="458" ht="22.5" customHeight="1" spans="1:14">
       <c r="A458" s="13" t="s">
@@ -23531,7 +23525,7 @@
       <c r="M458" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N458" s="18"/>
+      <c r="N458" s="2"/>
     </row>
     <row r="459" ht="22.5" customHeight="1" spans="1:14">
       <c r="A459" s="13" t="s">
@@ -23573,7 +23567,7 @@
       <c r="M459" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N459" s="18"/>
+      <c r="N459" s="2"/>
     </row>
     <row r="460" ht="22.5" customHeight="1" spans="1:14">
       <c r="A460" s="13" t="s">
@@ -23615,7 +23609,7 @@
       <c r="M460" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N460" s="18"/>
+      <c r="N460" s="2"/>
     </row>
     <row r="461" ht="22.5" customHeight="1" spans="1:14">
       <c r="A461" s="13" t="s">
@@ -23657,7 +23651,7 @@
       <c r="M461" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N461" s="18"/>
+      <c r="N461" s="2"/>
     </row>
     <row r="462" ht="22.5" customHeight="1" spans="1:14">
       <c r="A462" s="13" t="s">
@@ -23699,7 +23693,7 @@
       <c r="M462" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N462" s="18"/>
+      <c r="N462" s="2"/>
     </row>
     <row r="463" ht="22.5" customHeight="1" spans="1:14">
       <c r="A463" s="13" t="s">
@@ -23741,7 +23735,7 @@
       <c r="M463" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N463" s="18"/>
+      <c r="N463" s="2"/>
     </row>
     <row r="464" ht="22.5" customHeight="1" spans="1:14">
       <c r="A464" s="13" t="s">
@@ -23783,7 +23777,7 @@
       <c r="M464" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N464" s="18"/>
+      <c r="N464" s="2"/>
     </row>
     <row r="465" ht="22.5" customHeight="1" spans="1:14">
       <c r="A465" s="13" t="s">
@@ -23825,7 +23819,7 @@
       <c r="M465" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N465" s="18"/>
+      <c r="N465" s="2"/>
     </row>
     <row r="466" ht="22.5" customHeight="1" spans="1:14">
       <c r="A466" s="13" t="s">
@@ -23867,7 +23861,7 @@
       <c r="M466" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N466" s="18"/>
+      <c r="N466" s="2"/>
     </row>
     <row r="467" ht="22.5" customHeight="1" spans="1:14">
       <c r="A467" s="13" t="s">
@@ -23909,7 +23903,7 @@
       <c r="M467" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N467" s="18"/>
+      <c r="N467" s="2"/>
     </row>
     <row r="468" ht="22.5" customHeight="1" spans="1:14">
       <c r="A468" s="13" t="s">
@@ -23951,7 +23945,7 @@
       <c r="M468" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N468" s="18"/>
+      <c r="N468" s="2"/>
     </row>
     <row r="469" ht="22.5" customHeight="1" spans="1:14">
       <c r="A469" s="13" t="s">
@@ -23993,7 +23987,7 @@
       <c r="M469" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N469" s="18"/>
+      <c r="N469" s="2"/>
     </row>
     <row r="470" ht="22.5" customHeight="1" spans="1:14">
       <c r="A470" s="13" t="s">
@@ -24035,7 +24029,7 @@
       <c r="M470" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N470" s="18"/>
+      <c r="N470" s="2"/>
     </row>
     <row r="471" ht="22.5" customHeight="1" spans="1:14">
       <c r="A471" s="13" t="s">
@@ -24077,7 +24071,7 @@
       <c r="M471" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N471" s="18"/>
+      <c r="N471" s="2"/>
     </row>
     <row r="472" ht="22.5" customHeight="1" spans="1:14">
       <c r="A472" s="13" t="s">
@@ -24119,7 +24113,7 @@
       <c r="M472" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N472" s="18"/>
+      <c r="N472" s="2"/>
     </row>
     <row r="473" ht="22.5" customHeight="1" spans="1:14">
       <c r="A473" s="13" t="s">
@@ -24161,7 +24155,7 @@
       <c r="M473" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N473" s="18"/>
+      <c r="N473" s="2"/>
     </row>
     <row r="474" ht="22.5" customHeight="1" spans="1:14">
       <c r="A474" s="13" t="s">
@@ -24203,7 +24197,7 @@
       <c r="M474" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N474" s="18"/>
+      <c r="N474" s="2"/>
     </row>
     <row r="475" ht="22.5" customHeight="1" spans="1:14">
       <c r="A475" s="13" t="s">
@@ -24245,7 +24239,7 @@
       <c r="M475" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N475" s="18"/>
+      <c r="N475" s="2"/>
     </row>
     <row r="476" ht="22.5" customHeight="1" spans="1:14">
       <c r="A476" s="13" t="s">
@@ -24287,7 +24281,7 @@
       <c r="M476" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N476" s="18"/>
+      <c r="N476" s="2"/>
     </row>
     <row r="477" ht="22.5" customHeight="1" spans="1:14">
       <c r="A477" s="13" t="s">
@@ -24329,7 +24323,7 @@
       <c r="M477" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N477" s="18"/>
+      <c r="N477" s="2"/>
     </row>
     <row r="478" ht="22.5" customHeight="1" spans="1:14">
       <c r="A478" s="13" t="s">
@@ -24371,7 +24365,7 @@
       <c r="M478" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N478" s="18"/>
+      <c r="N478" s="2"/>
     </row>
     <row r="479" ht="22.5" customHeight="1" spans="1:14">
       <c r="A479" s="13" t="s">
@@ -24413,7 +24407,7 @@
       <c r="M479" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N479" s="18"/>
+      <c r="N479" s="2"/>
     </row>
     <row r="480" ht="22.5" customHeight="1" spans="1:14">
       <c r="A480" s="13" t="s">
@@ -24455,7 +24449,7 @@
       <c r="M480" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N480" s="18"/>
+      <c r="N480" s="2"/>
     </row>
     <row r="481" ht="22.5" customHeight="1" spans="1:14">
       <c r="A481" s="13" t="s">
@@ -24497,7 +24491,7 @@
       <c r="M481" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N481" s="18"/>
+      <c r="N481" s="2"/>
     </row>
     <row r="482" ht="22.5" customHeight="1" spans="1:14">
       <c r="A482" s="13" t="s">
@@ -24539,7 +24533,7 @@
       <c r="M482" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N482" s="18"/>
+      <c r="N482" s="2"/>
     </row>
     <row r="483" ht="22.5" customHeight="1" spans="1:14">
       <c r="A483" s="13" t="s">
@@ -24581,7 +24575,7 @@
       <c r="M483" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N483" s="18"/>
+      <c r="N483" s="2"/>
     </row>
     <row r="484" ht="22.5" customHeight="1" spans="1:14">
       <c r="A484" s="13" t="s">
@@ -24623,7 +24617,7 @@
       <c r="M484" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N484" s="18"/>
+      <c r="N484" s="2"/>
     </row>
     <row r="485" ht="22.5" customHeight="1" spans="1:14">
       <c r="A485" s="13" t="s">
@@ -24665,7 +24659,7 @@
       <c r="M485" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N485" s="18"/>
+      <c r="N485" s="2"/>
     </row>
     <row r="486" ht="22.5" customHeight="1" spans="1:14">
       <c r="A486" s="13" t="s">
@@ -24707,7 +24701,7 @@
       <c r="M486" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N486" s="18"/>
+      <c r="N486" s="2"/>
     </row>
     <row r="487" ht="22.5" customHeight="1" spans="1:14">
       <c r="A487" s="13" t="s">
@@ -24749,7 +24743,7 @@
       <c r="M487" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N487" s="18"/>
+      <c r="N487" s="2"/>
     </row>
     <row r="488" ht="22.5" customHeight="1" spans="1:14">
       <c r="A488" s="13" t="s">
@@ -24791,7 +24785,7 @@
       <c r="M488" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N488" s="18"/>
+      <c r="N488" s="2"/>
     </row>
     <row r="489" ht="22.5" customHeight="1" spans="1:14">
       <c r="A489" s="13" t="s">
@@ -24833,7 +24827,7 @@
       <c r="M489" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N489" s="18"/>
+      <c r="N489" s="2"/>
     </row>
     <row r="490" ht="22.5" customHeight="1" spans="1:14">
       <c r="A490" s="13" t="s">
@@ -24875,7 +24869,7 @@
       <c r="M490" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N490" s="18"/>
+      <c r="N490" s="2"/>
     </row>
     <row r="491" ht="22.5" customHeight="1" spans="1:14">
       <c r="A491" s="13" t="s">
@@ -24917,7 +24911,7 @@
       <c r="M491" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N491" s="18"/>
+      <c r="N491" s="2"/>
     </row>
     <row r="492" ht="22.5" customHeight="1" spans="1:14">
       <c r="A492" s="13" t="s">
@@ -24959,7 +24953,7 @@
       <c r="M492" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N492" s="18"/>
+      <c r="N492" s="2"/>
     </row>
     <row r="493" ht="22.5" customHeight="1" spans="1:14">
       <c r="A493" s="13" t="s">
@@ -25001,7 +24995,7 @@
       <c r="M493" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N493" s="18"/>
+      <c r="N493" s="2"/>
     </row>
     <row r="494" ht="22.5" customHeight="1" spans="1:14">
       <c r="A494" s="13" t="s">
@@ -25043,7 +25037,7 @@
       <c r="M494" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N494" s="18"/>
+      <c r="N494" s="2"/>
     </row>
     <row r="495" ht="22.5" customHeight="1" spans="1:14">
       <c r="A495" s="13" t="s">
@@ -25085,7 +25079,7 @@
       <c r="M495" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N495" s="18"/>
+      <c r="N495" s="2"/>
     </row>
     <row r="496" ht="22.5" customHeight="1" spans="1:14">
       <c r="A496" s="13" t="s">
@@ -25127,7 +25121,7 @@
       <c r="M496" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N496" s="18"/>
+      <c r="N496" s="2"/>
     </row>
     <row r="497" ht="22.5" customHeight="1" spans="1:14">
       <c r="A497" s="13" t="s">
@@ -25169,7 +25163,7 @@
       <c r="M497" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N497" s="18"/>
+      <c r="N497" s="2"/>
     </row>
     <row r="498" ht="22.5" customHeight="1" spans="1:14">
       <c r="A498" s="13" t="s">
@@ -25211,7 +25205,7 @@
       <c r="M498" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N498" s="18"/>
+      <c r="N498" s="2"/>
     </row>
     <row r="499" ht="22.5" customHeight="1" spans="1:14">
       <c r="A499" s="13" t="s">
@@ -25253,7 +25247,7 @@
       <c r="M499" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N499" s="18"/>
+      <c r="N499" s="2"/>
     </row>
     <row r="500" ht="22.5" customHeight="1" spans="1:14">
       <c r="A500" s="13" t="s">
@@ -25295,7 +25289,7 @@
       <c r="M500" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N500" s="18"/>
+      <c r="N500" s="2"/>
     </row>
     <row r="501" ht="22.5" customHeight="1" spans="1:14">
       <c r="A501" s="13" t="s">
@@ -25337,7 +25331,7 @@
       <c r="M501" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N501" s="18"/>
+      <c r="N501" s="2"/>
     </row>
     <row r="502" ht="22.5" customHeight="1" spans="1:14">
       <c r="A502" s="13" t="s">
@@ -25379,7 +25373,7 @@
       <c r="M502" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N502" s="18"/>
+      <c r="N502" s="2"/>
     </row>
     <row r="503" ht="22.5" customHeight="1" spans="1:14">
       <c r="A503" s="13" t="s">
@@ -25421,7 +25415,7 @@
       <c r="M503" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N503" s="18"/>
+      <c r="N503" s="2"/>
     </row>
     <row r="504" ht="22.5" customHeight="1" spans="1:14">
       <c r="A504" s="13" t="s">
@@ -25463,7 +25457,7 @@
       <c r="M504" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N504" s="18"/>
+      <c r="N504" s="2"/>
     </row>
     <row r="505" ht="22.5" customHeight="1" spans="1:14">
       <c r="A505" s="13" t="s">
@@ -25505,7 +25499,7 @@
       <c r="M505" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N505" s="18"/>
+      <c r="N505" s="2"/>
     </row>
     <row r="506" ht="22.5" customHeight="1" spans="1:14">
       <c r="A506" s="13" t="s">
@@ -25547,7 +25541,7 @@
       <c r="M506" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N506" s="18"/>
+      <c r="N506" s="2"/>
     </row>
     <row r="507" ht="22.5" customHeight="1" spans="1:14">
       <c r="A507" s="13" t="s">
@@ -25589,7 +25583,7 @@
       <c r="M507" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N507" s="18"/>
+      <c r="N507" s="2"/>
     </row>
     <row r="508" ht="22.5" customHeight="1" spans="1:14">
       <c r="A508" s="13" t="s">
@@ -25631,7 +25625,7 @@
       <c r="M508" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N508" s="18"/>
+      <c r="N508" s="2"/>
     </row>
     <row r="509" ht="22.5" customHeight="1" spans="1:14">
       <c r="A509" s="13" t="s">
@@ -25673,7 +25667,7 @@
       <c r="M509" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N509" s="18"/>
+      <c r="N509" s="2"/>
     </row>
     <row r="510" ht="22.5" customHeight="1" spans="1:14">
       <c r="A510" s="13" t="s">
@@ -25715,7 +25709,7 @@
       <c r="M510" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N510" s="18"/>
+      <c r="N510" s="2"/>
     </row>
     <row r="511" ht="22.5" customHeight="1" spans="1:14">
       <c r="A511" s="13" t="s">
@@ -25757,7 +25751,7 @@
       <c r="M511" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N511" s="18"/>
+      <c r="N511" s="2"/>
     </row>
     <row r="512" ht="22.5" customHeight="1" spans="1:14">
       <c r="A512" s="13" t="s">
@@ -25799,7 +25793,7 @@
       <c r="M512" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N512" s="18"/>
+      <c r="N512" s="2"/>
     </row>
     <row r="513" ht="22.5" customHeight="1" spans="1:14">
       <c r="A513" s="13" t="s">
@@ -25841,7 +25835,7 @@
       <c r="M513" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N513" s="18"/>
+      <c r="N513" s="2"/>
     </row>
     <row r="514" ht="22.5" customHeight="1" spans="1:14">
       <c r="A514" s="13" t="s">
@@ -25883,7 +25877,7 @@
       <c r="M514" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N514" s="18"/>
+      <c r="N514" s="2"/>
     </row>
     <row r="515" ht="22.5" customHeight="1" spans="1:14">
       <c r="A515" s="13" t="s">
@@ -25925,7 +25919,7 @@
       <c r="M515" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N515" s="18"/>
+      <c r="N515" s="2"/>
     </row>
     <row r="516" ht="22.5" customHeight="1" spans="1:14">
       <c r="A516" s="13" t="s">
@@ -25967,7 +25961,7 @@
       <c r="M516" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N516" s="18"/>
+      <c r="N516" s="2"/>
     </row>
     <row r="517" ht="22.5" customHeight="1" spans="1:14">
       <c r="A517" s="13" t="s">
@@ -26009,7 +26003,7 @@
       <c r="M517" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N517" s="18"/>
+      <c r="N517" s="2"/>
     </row>
     <row r="518" ht="22.5" customHeight="1" spans="1:14">
       <c r="A518" s="13" t="s">
@@ -26051,7 +26045,7 @@
       <c r="M518" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N518" s="18"/>
+      <c r="N518" s="2"/>
     </row>
     <row r="519" ht="22.5" customHeight="1" spans="1:14">
       <c r="A519" s="13" t="s">
@@ -26093,10 +26087,10 @@
       <c r="M519" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N519" s="18"/>
+      <c r="N519" s="2"/>
     </row>
     <row r="520" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A520" s="21" t="s">
+      <c r="A520" s="19" t="s">
         <v>577</v>
       </c>
       <c r="B520" s="14">
@@ -26135,7 +26129,7 @@
       <c r="M520" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N520" s="18"/>
+      <c r="N520" s="2"/>
     </row>
     <row r="521" ht="22.5" customHeight="1" spans="1:14">
       <c r="A521" s="13" t="s">
@@ -26177,7 +26171,7 @@
       <c r="M521" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N521" s="18"/>
+      <c r="N521" s="2"/>
     </row>
     <row r="522" ht="22.5" customHeight="1" spans="1:14">
       <c r="A522" s="13" t="s">
@@ -26219,7 +26213,7 @@
       <c r="M522" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N522" s="18"/>
+      <c r="N522" s="2"/>
     </row>
     <row r="523" ht="22.5" customHeight="1" spans="1:14">
       <c r="A523" s="13" t="s">
@@ -26261,7 +26255,7 @@
       <c r="M523" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N523" s="18"/>
+      <c r="N523" s="2"/>
     </row>
     <row r="524" ht="22.5" customHeight="1" spans="1:14">
       <c r="A524" s="13" t="s">
@@ -26303,7 +26297,7 @@
       <c r="M524" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N524" s="18"/>
+      <c r="N524" s="2"/>
     </row>
     <row r="525" ht="22.5" customHeight="1" spans="1:14">
       <c r="A525" s="13" t="s">
@@ -26345,7 +26339,7 @@
       <c r="M525" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N525" s="18"/>
+      <c r="N525" s="2"/>
     </row>
     <row r="526" ht="22.5" customHeight="1" spans="1:14">
       <c r="A526" s="13" t="s">
@@ -26387,7 +26381,7 @@
       <c r="M526" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N526" s="18"/>
+      <c r="N526" s="2"/>
     </row>
     <row r="527" ht="22.5" customHeight="1" spans="1:14">
       <c r="A527" s="13" t="s">
@@ -26429,7 +26423,7 @@
       <c r="M527" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N527" s="18"/>
+      <c r="N527" s="2"/>
     </row>
     <row r="528" ht="22.5" customHeight="1" spans="1:14">
       <c r="A528" s="13" t="s">
@@ -26471,7 +26465,7 @@
       <c r="M528" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N528" s="18"/>
+      <c r="N528" s="2"/>
     </row>
     <row r="529" ht="22.5" customHeight="1" spans="1:14">
       <c r="A529" s="13" t="s">
@@ -26513,7 +26507,7 @@
       <c r="M529" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N529" s="18"/>
+      <c r="N529" s="2"/>
     </row>
     <row r="530" ht="22.5" customHeight="1" spans="1:14">
       <c r="A530" s="13" t="s">
@@ -26555,7 +26549,7 @@
       <c r="M530" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N530" s="18"/>
+      <c r="N530" s="2"/>
     </row>
     <row r="531" ht="22.5" customHeight="1" spans="1:14">
       <c r="A531" s="13" t="s">
@@ -26597,7 +26591,7 @@
       <c r="M531" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N531" s="18"/>
+      <c r="N531" s="2"/>
     </row>
     <row r="532" ht="22.5" customHeight="1" spans="1:14">
       <c r="A532" s="13" t="s">
@@ -26639,7 +26633,7 @@
       <c r="M532" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N532" s="18"/>
+      <c r="N532" s="2"/>
     </row>
     <row r="533" ht="22.5" customHeight="1" spans="1:14">
       <c r="A533" s="13" t="s">
@@ -26681,7 +26675,7 @@
       <c r="M533" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N533" s="18"/>
+      <c r="N533" s="2"/>
     </row>
     <row r="534" ht="22.5" customHeight="1" spans="1:14">
       <c r="A534" s="13" t="s">
@@ -26723,7 +26717,7 @@
       <c r="M534" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N534" s="18"/>
+      <c r="N534" s="2"/>
     </row>
     <row r="535" ht="22.5" customHeight="1" spans="1:14">
       <c r="A535" s="13" t="s">
@@ -26765,7 +26759,7 @@
       <c r="M535" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N535" s="18"/>
+      <c r="N535" s="2"/>
     </row>
     <row r="536" ht="22.5" customHeight="1" spans="1:14">
       <c r="A536" s="13" t="s">
@@ -26807,7 +26801,7 @@
       <c r="M536" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N536" s="18"/>
+      <c r="N536" s="2"/>
     </row>
     <row r="537" ht="22.5" customHeight="1" spans="1:14">
       <c r="A537" s="13" t="s">
@@ -26849,7 +26843,7 @@
       <c r="M537" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N537" s="18"/>
+      <c r="N537" s="2"/>
     </row>
     <row r="538" ht="22.5" customHeight="1" spans="1:14">
       <c r="A538" s="13" t="s">
@@ -26891,7 +26885,7 @@
       <c r="M538" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N538" s="18"/>
+      <c r="N538" s="2"/>
     </row>
     <row r="539" ht="22.5" customHeight="1" spans="1:14">
       <c r="A539" s="13" t="s">
@@ -26933,7 +26927,7 @@
       <c r="M539" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N539" s="18"/>
+      <c r="N539" s="2"/>
     </row>
     <row r="540" ht="22.5" customHeight="1" spans="1:14">
       <c r="A540" s="13" t="s">
@@ -26975,7 +26969,7 @@
       <c r="M540" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N540" s="18"/>
+      <c r="N540" s="2"/>
     </row>
     <row r="541" ht="22.5" customHeight="1" spans="1:14">
       <c r="A541" s="13" t="s">
@@ -27017,10 +27011,10 @@
       <c r="M541" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N541" s="18"/>
+      <c r="N541" s="2"/>
     </row>
     <row r="542" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A542" s="21" t="s">
+      <c r="A542" s="19" t="s">
         <v>599</v>
       </c>
       <c r="B542" s="15">
@@ -27059,7 +27053,7 @@
       <c r="M542" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N542" s="18"/>
+      <c r="N542" s="2"/>
     </row>
     <row r="543" ht="22.5" customHeight="1" spans="1:14">
       <c r="A543" s="13" t="s">
@@ -27101,7 +27095,7 @@
       <c r="M543" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N543" s="18"/>
+      <c r="N543" s="2"/>
     </row>
     <row r="544" ht="22.5" customHeight="1" spans="1:14">
       <c r="A544" s="13" t="s">
@@ -27143,7 +27137,7 @@
       <c r="M544" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N544" s="18"/>
+      <c r="N544" s="2"/>
     </row>
     <row r="545" ht="22.5" customHeight="1" spans="1:14">
       <c r="A545" s="13" t="s">
@@ -27185,7 +27179,7 @@
       <c r="M545" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N545" s="18"/>
+      <c r="N545" s="2"/>
     </row>
     <row r="546" ht="22.5" customHeight="1" spans="1:14">
       <c r="A546" s="13" t="s">
@@ -27227,7 +27221,7 @@
       <c r="M546" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N546" s="18"/>
+      <c r="N546" s="2"/>
     </row>
     <row r="547" ht="22.5" customHeight="1" spans="1:14">
       <c r="A547" s="13" t="s">
@@ -27269,7 +27263,7 @@
       <c r="M547" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N547" s="18"/>
+      <c r="N547" s="2"/>
     </row>
     <row r="548" ht="22.5" customHeight="1" spans="1:14">
       <c r="A548" s="13" t="s">
@@ -27311,7 +27305,7 @@
       <c r="M548" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N548" s="18"/>
+      <c r="N548" s="2"/>
     </row>
     <row r="549" ht="22.5" customHeight="1" spans="1:14">
       <c r="A549" s="13" t="s">
@@ -27353,7 +27347,7 @@
       <c r="M549" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N549" s="18"/>
+      <c r="N549" s="2"/>
     </row>
     <row r="550" ht="22.5" customHeight="1" spans="1:14">
       <c r="A550" s="13" t="s">
@@ -27395,7 +27389,7 @@
       <c r="M550" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N550" s="18"/>
+      <c r="N550" s="2"/>
     </row>
     <row r="551" ht="22.5" customHeight="1" spans="1:14">
       <c r="A551" s="13" t="s">
@@ -27437,7 +27431,7 @@
       <c r="M551" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N551" s="18"/>
+      <c r="N551" s="2"/>
     </row>
     <row r="552" ht="22.5" customHeight="1" spans="1:14">
       <c r="A552" s="13" t="s">
@@ -27479,7 +27473,7 @@
       <c r="M552" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N552" s="18"/>
+      <c r="N552" s="2"/>
     </row>
     <row r="553" ht="22.5" customHeight="1" spans="1:14">
       <c r="A553" s="13" t="s">
@@ -27521,7 +27515,7 @@
       <c r="M553" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N553" s="18"/>
+      <c r="N553" s="2"/>
     </row>
     <row r="554" ht="22.5" customHeight="1" spans="1:14">
       <c r="A554" s="13" t="s">
@@ -27563,7 +27557,7 @@
       <c r="M554" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N554" s="18"/>
+      <c r="N554" s="2"/>
     </row>
     <row r="555" ht="22.5" customHeight="1" spans="1:14">
       <c r="A555" s="13" t="s">
@@ -27605,7 +27599,7 @@
       <c r="M555" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N555" s="18"/>
+      <c r="N555" s="2"/>
     </row>
     <row r="556" ht="22.5" customHeight="1" spans="1:14">
       <c r="A556" s="13" t="s">
@@ -27647,7 +27641,7 @@
       <c r="M556" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N556" s="18"/>
+      <c r="N556" s="2"/>
     </row>
     <row r="557" ht="22.5" customHeight="1" spans="1:14">
       <c r="A557" s="13" t="s">
@@ -27689,7 +27683,7 @@
       <c r="M557" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N557" s="18"/>
+      <c r="N557" s="2"/>
     </row>
     <row r="558" ht="22.5" customHeight="1" spans="1:14">
       <c r="A558" s="13" t="s">
@@ -27731,7 +27725,7 @@
       <c r="M558" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N558" s="18"/>
+      <c r="N558" s="2"/>
     </row>
     <row r="559" ht="22.5" customHeight="1" spans="1:14">
       <c r="A559" s="13" t="s">
@@ -27773,7 +27767,7 @@
       <c r="M559" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N559" s="18"/>
+      <c r="N559" s="2"/>
     </row>
     <row r="560" ht="22.5" customHeight="1" spans="1:14">
       <c r="A560" s="13" t="s">
@@ -27815,7 +27809,7 @@
       <c r="M560" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N560" s="18"/>
+      <c r="N560" s="2"/>
     </row>
     <row r="561" ht="22.5" customHeight="1" spans="1:14">
       <c r="A561" s="13" t="s">
@@ -27857,7 +27851,7 @@
       <c r="M561" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N561" s="18"/>
+      <c r="N561" s="2"/>
     </row>
     <row r="562" ht="22.5" customHeight="1" spans="1:14">
       <c r="A562" s="13" t="s">
@@ -27899,7 +27893,7 @@
       <c r="M562" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N562" s="18"/>
+      <c r="N562" s="2"/>
     </row>
     <row r="563" ht="22.5" customHeight="1" spans="1:14">
       <c r="A563" s="13" t="s">
@@ -27941,7 +27935,7 @@
       <c r="M563" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N563" s="18"/>
+      <c r="N563" s="2"/>
     </row>
     <row r="564" ht="22.5" customHeight="1" spans="1:14">
       <c r="A564" s="13" t="s">
@@ -27983,7 +27977,7 @@
       <c r="M564" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N564" s="18"/>
+      <c r="N564" s="2"/>
     </row>
     <row r="565" ht="22.5" customHeight="1" spans="1:14">
       <c r="A565" s="13" t="s">
@@ -28025,7 +28019,7 @@
       <c r="M565" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N565" s="18"/>
+      <c r="N565" s="2"/>
     </row>
     <row r="566" ht="22.5" customHeight="1" spans="1:14">
       <c r="A566" s="13" t="s">
@@ -28067,7 +28061,7 @@
       <c r="M566" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N566" s="18"/>
+      <c r="N566" s="2"/>
     </row>
     <row r="567" ht="22.5" customHeight="1" spans="1:14">
       <c r="A567" s="13" t="s">
@@ -28109,7 +28103,7 @@
       <c r="M567" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N567" s="18"/>
+      <c r="N567" s="2"/>
     </row>
     <row r="568" ht="22.5" customHeight="1" spans="1:14">
       <c r="A568" s="13" t="s">
@@ -28151,7 +28145,7 @@
       <c r="M568" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N568" s="18"/>
+      <c r="N568" s="2"/>
     </row>
     <row r="569" ht="22.5" customHeight="1" spans="1:14">
       <c r="A569" s="13" t="s">
@@ -28193,7 +28187,7 @@
       <c r="M569" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N569" s="18"/>
+      <c r="N569" s="2"/>
     </row>
     <row r="570" ht="22.5" customHeight="1" spans="1:14">
       <c r="A570" s="13" t="s">
@@ -28235,7 +28229,7 @@
       <c r="M570" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N570" s="18"/>
+      <c r="N570" s="2"/>
     </row>
     <row r="571" ht="22.5" customHeight="1" spans="1:14">
       <c r="A571" s="13" t="s">
@@ -28277,7 +28271,7 @@
       <c r="M571" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N571" s="18"/>
+      <c r="N571" s="2"/>
     </row>
     <row r="572" ht="22.5" customHeight="1" spans="1:14">
       <c r="A572" s="13" t="s">
@@ -28319,7 +28313,7 @@
       <c r="M572" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N572" s="18"/>
+      <c r="N572" s="2"/>
     </row>
     <row r="573" ht="22.5" customHeight="1" spans="1:14">
       <c r="A573" s="13" t="s">
@@ -28361,7 +28355,7 @@
       <c r="M573" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N573" s="18"/>
+      <c r="N573" s="2"/>
     </row>
     <row r="574" ht="22.5" customHeight="1" spans="1:14">
       <c r="A574" s="13" t="s">
@@ -28403,7 +28397,7 @@
       <c r="M574" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N574" s="18"/>
+      <c r="N574" s="2"/>
     </row>
     <row r="575" ht="22.5" customHeight="1" spans="1:14">
       <c r="A575" s="13" t="s">
@@ -28445,7 +28439,7 @@
       <c r="M575" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N575" s="18"/>
+      <c r="N575" s="2"/>
     </row>
     <row r="576" ht="22.5" customHeight="1" spans="1:14">
       <c r="A576" s="13" t="s">
@@ -28487,7 +28481,7 @@
       <c r="M576" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N576" s="18"/>
+      <c r="N576" s="2"/>
     </row>
     <row r="577" ht="22.5" customHeight="1" spans="1:14">
       <c r="A577" s="13" t="s">
@@ -28529,7 +28523,7 @@
       <c r="M577" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N577" s="18"/>
+      <c r="N577" s="2"/>
     </row>
     <row r="578" ht="22.5" customHeight="1" spans="1:14">
       <c r="A578" s="13" t="s">
@@ -28571,7 +28565,7 @@
       <c r="M578" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N578" s="18"/>
+      <c r="N578" s="2"/>
     </row>
     <row r="579" ht="22.5" customHeight="1" spans="1:14">
       <c r="A579" s="13" t="s">
@@ -28613,7 +28607,7 @@
       <c r="M579" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N579" s="18"/>
+      <c r="N579" s="2"/>
     </row>
     <row r="580" ht="22.5" customHeight="1" spans="1:14">
       <c r="A580" s="13" t="s">
@@ -28655,7 +28649,7 @@
       <c r="M580" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N580" s="18"/>
+      <c r="N580" s="2"/>
     </row>
     <row r="581" ht="22.5" customHeight="1" spans="1:14">
       <c r="A581" s="13" t="s">
@@ -28697,7 +28691,7 @@
       <c r="M581" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N581" s="18"/>
+      <c r="N581" s="2"/>
     </row>
     <row r="582" ht="22.5" customHeight="1" spans="1:14">
       <c r="A582" s="13" t="s">
@@ -28739,7 +28733,7 @@
       <c r="M582" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N582" s="18"/>
+      <c r="N582" s="2"/>
     </row>
     <row r="583" ht="22.5" customHeight="1" spans="1:14">
       <c r="A583" s="13" t="s">
@@ -28781,7 +28775,7 @@
       <c r="M583" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N583" s="18"/>
+      <c r="N583" s="2"/>
     </row>
     <row r="584" ht="22.5" customHeight="1" spans="1:14">
       <c r="A584" s="13" t="s">
@@ -28823,7 +28817,7 @@
       <c r="M584" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N584" s="18"/>
+      <c r="N584" s="2"/>
     </row>
     <row r="585" ht="22.5" customHeight="1" spans="1:14">
       <c r="A585" s="13" t="s">
@@ -28865,7 +28859,7 @@
       <c r="M585" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N585" s="18"/>
+      <c r="N585" s="2"/>
     </row>
     <row r="586" ht="22.5" customHeight="1" spans="1:14">
       <c r="A586" s="13" t="s">
@@ -28907,7 +28901,7 @@
       <c r="M586" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N586" s="18"/>
+      <c r="N586" s="2"/>
     </row>
     <row r="587" ht="22.5" customHeight="1" spans="1:14">
       <c r="A587" s="13" t="s">
@@ -28949,7 +28943,7 @@
       <c r="M587" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N587" s="18"/>
+      <c r="N587" s="2"/>
     </row>
     <row r="588" ht="22.5" customHeight="1" spans="1:14">
       <c r="A588" s="13" t="s">
@@ -28991,7 +28985,7 @@
       <c r="M588" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N588" s="18"/>
+      <c r="N588" s="2"/>
     </row>
     <row r="589" ht="22.5" customHeight="1" spans="1:14">
       <c r="A589" s="13" t="s">
@@ -29033,7 +29027,7 @@
       <c r="M589" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N589" s="18"/>
+      <c r="N589" s="2"/>
     </row>
     <row r="590" ht="22.5" customHeight="1" spans="1:14">
       <c r="A590" s="13" t="s">
@@ -29075,7 +29069,7 @@
       <c r="M590" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N590" s="18"/>
+      <c r="N590" s="2"/>
     </row>
     <row r="591" ht="22.5" customHeight="1" spans="1:14">
       <c r="A591" s="13" t="s">
@@ -29117,7 +29111,7 @@
       <c r="M591" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N591" s="18"/>
+      <c r="N591" s="2"/>
     </row>
     <row r="592" ht="22.5" customHeight="1" spans="1:14">
       <c r="A592" s="13" t="s">
@@ -29159,7 +29153,7 @@
       <c r="M592" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N592" s="18"/>
+      <c r="N592" s="2"/>
     </row>
     <row r="593" ht="22.5" customHeight="1" spans="1:14">
       <c r="A593" s="13" t="s">
@@ -29201,7 +29195,7 @@
       <c r="M593" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N593" s="18"/>
+      <c r="N593" s="2"/>
     </row>
     <row r="594" ht="22.5" customHeight="1" spans="1:14">
       <c r="A594" s="13" t="s">
@@ -29243,7 +29237,7 @@
       <c r="M594" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N594" s="18"/>
+      <c r="N594" s="2"/>
     </row>
     <row r="595" ht="22.5" customHeight="1" spans="1:14">
       <c r="A595" s="13" t="s">
@@ -29285,7 +29279,7 @@
       <c r="M595" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N595" s="18"/>
+      <c r="N595" s="2"/>
     </row>
     <row r="596" ht="22.5" customHeight="1" spans="1:14">
       <c r="A596" s="13" t="s">
@@ -29327,7 +29321,7 @@
       <c r="M596" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N596" s="18"/>
+      <c r="N596" s="2"/>
     </row>
     <row r="597" ht="22.5" customHeight="1" spans="1:14">
       <c r="A597" s="13" t="s">
@@ -29369,7 +29363,7 @@
       <c r="M597" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N597" s="18"/>
+      <c r="N597" s="2"/>
     </row>
     <row r="598" ht="22.5" customHeight="1" spans="1:14">
       <c r="A598" s="13" t="s">
@@ -29411,7 +29405,7 @@
       <c r="M598" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N598" s="18"/>
+      <c r="N598" s="2"/>
     </row>
     <row r="599" ht="22.5" customHeight="1" spans="1:14">
       <c r="A599" s="13" t="s">
@@ -29453,7 +29447,7 @@
       <c r="M599" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N599" s="18"/>
+      <c r="N599" s="2"/>
     </row>
     <row r="600" ht="22.5" customHeight="1" spans="1:14">
       <c r="A600" s="13" t="s">
@@ -29495,7 +29489,7 @@
       <c r="M600" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N600" s="18"/>
+      <c r="N600" s="2"/>
     </row>
     <row r="601" ht="22.5" customHeight="1" spans="1:14">
       <c r="A601" s="13" t="s">
@@ -29537,7 +29531,7 @@
       <c r="M601" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N601" s="18"/>
+      <c r="N601" s="2"/>
     </row>
     <row r="602" ht="22.5" customHeight="1" spans="1:14">
       <c r="A602" s="13" t="s">
@@ -29579,7 +29573,7 @@
       <c r="M602" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N602" s="18"/>
+      <c r="N602" s="2"/>
     </row>
     <row r="603" ht="22.5" customHeight="1" spans="1:14">
       <c r="A603" s="13" t="s">
@@ -29621,7 +29615,7 @@
       <c r="M603" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N603" s="18"/>
+      <c r="N603" s="2"/>
     </row>
     <row r="604" ht="22.5" customHeight="1" spans="1:14">
       <c r="A604" s="13" t="s">
@@ -29663,10 +29657,10 @@
       <c r="M604" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N604" s="18"/>
+      <c r="N604" s="2"/>
     </row>
     <row r="605" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A605" s="20" t="s">
+      <c r="A605" s="18" t="s">
         <v>662</v>
       </c>
       <c r="B605" s="14">
@@ -29705,7 +29699,7 @@
       <c r="M605" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N605" s="18"/>
+      <c r="N605" s="2"/>
     </row>
     <row r="606" ht="22.5" customHeight="1" spans="1:14">
       <c r="A606" s="13" t="s">
@@ -29747,7 +29741,7 @@
       <c r="M606" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N606" s="18"/>
+      <c r="N606" s="2"/>
     </row>
     <row r="607" ht="22.5" customHeight="1" spans="1:14">
       <c r="A607" s="13" t="s">
@@ -29789,7 +29783,7 @@
       <c r="M607" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N607" s="18"/>
+      <c r="N607" s="2"/>
     </row>
     <row r="608" ht="22.5" customHeight="1" spans="1:14">
       <c r="A608" s="13" t="s">
@@ -29831,7 +29825,7 @@
       <c r="M608" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N608" s="18"/>
+      <c r="N608" s="2"/>
     </row>
     <row r="609" ht="22.5" customHeight="1" spans="1:14">
       <c r="A609" s="13" t="s">
@@ -29873,7 +29867,7 @@
       <c r="M609" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N609" s="18"/>
+      <c r="N609" s="2"/>
     </row>
     <row r="610" ht="22.5" customHeight="1" spans="1:14">
       <c r="A610" s="13" t="s">
@@ -29915,7 +29909,7 @@
       <c r="M610" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N610" s="18"/>
+      <c r="N610" s="2"/>
     </row>
     <row r="611" ht="22.5" customHeight="1" spans="1:14">
       <c r="A611" s="13" t="s">
@@ -29957,7 +29951,7 @@
       <c r="M611" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N611" s="18"/>
+      <c r="N611" s="2"/>
     </row>
     <row r="612" ht="22.5" customHeight="1" spans="1:14">
       <c r="A612" s="13" t="s">
@@ -29999,7 +29993,7 @@
       <c r="M612" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N612" s="18"/>
+      <c r="N612" s="2"/>
     </row>
     <row r="613" ht="22.5" customHeight="1" spans="1:14">
       <c r="A613" s="13" t="s">
@@ -30041,7 +30035,7 @@
       <c r="M613" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N613" s="18"/>
+      <c r="N613" s="2"/>
     </row>
     <row r="614" ht="22.5" customHeight="1" spans="1:14">
       <c r="A614" s="13" t="s">
@@ -30083,7 +30077,7 @@
       <c r="M614" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N614" s="18"/>
+      <c r="N614" s="2"/>
     </row>
     <row r="615" ht="22.5" customHeight="1" spans="1:14">
       <c r="A615" s="13" t="s">
@@ -30125,7 +30119,7 @@
       <c r="M615" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N615" s="18"/>
+      <c r="N615" s="2"/>
     </row>
     <row r="616" ht="22.5" customHeight="1" spans="1:14">
       <c r="A616" s="13" t="s">
@@ -30167,7 +30161,7 @@
       <c r="M616" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N616" s="18"/>
+      <c r="N616" s="2"/>
     </row>
     <row r="617" ht="22.5" customHeight="1" spans="1:14">
       <c r="A617" s="13" t="s">
@@ -30209,7 +30203,7 @@
       <c r="M617" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N617" s="18"/>
+      <c r="N617" s="2"/>
     </row>
     <row r="618" ht="22.5" customHeight="1" spans="1:14">
       <c r="A618" s="13" t="s">
@@ -30251,7 +30245,7 @@
       <c r="M618" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N618" s="18"/>
+      <c r="N618" s="2"/>
     </row>
     <row r="619" ht="22.5" customHeight="1" spans="1:14">
       <c r="A619" s="13" t="s">
@@ -30293,7 +30287,7 @@
       <c r="M619" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N619" s="18"/>
+      <c r="N619" s="2"/>
     </row>
     <row r="620" ht="22.5" customHeight="1" spans="1:14">
       <c r="A620" s="13" t="s">
@@ -30335,7 +30329,7 @@
       <c r="M620" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N620" s="18"/>
+      <c r="N620" s="2"/>
     </row>
     <row r="621" ht="22.5" customHeight="1" spans="1:14">
       <c r="A621" s="13" t="s">
@@ -30377,7 +30371,7 @@
       <c r="M621" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N621" s="18"/>
+      <c r="N621" s="2"/>
     </row>
     <row r="622" ht="39" customHeight="1" spans="1:14">
       <c r="A622" s="13" t="s">
@@ -30419,7 +30413,7 @@
       <c r="M622" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N622" s="18"/>
+      <c r="N622" s="2"/>
     </row>
     <row r="623" ht="22.5" customHeight="1" spans="1:14">
       <c r="A623" s="13" t="s">
@@ -30461,7 +30455,7 @@
       <c r="M623" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N623" s="18"/>
+      <c r="N623" s="2"/>
     </row>
     <row r="624" ht="22.5" customHeight="1" spans="1:14">
       <c r="A624" s="13" t="s">
@@ -30503,7 +30497,7 @@
       <c r="M624" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N624" s="18"/>
+      <c r="N624" s="2"/>
     </row>
     <row r="625" ht="22.5" customHeight="1" spans="1:14">
       <c r="A625" s="13" t="s">
@@ -30545,7 +30539,7 @@
       <c r="M625" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N625" s="18"/>
+      <c r="N625" s="2"/>
     </row>
     <row r="626" ht="22.5" customHeight="1" spans="1:14">
       <c r="A626" s="13" t="s">
@@ -30587,7 +30581,7 @@
       <c r="M626" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N626" s="18"/>
+      <c r="N626" s="2"/>
     </row>
     <row r="627" ht="22.5" customHeight="1" spans="1:14">
       <c r="A627" s="13" t="s">
@@ -30629,7 +30623,7 @@
       <c r="M627" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N627" s="18"/>
+      <c r="N627" s="2"/>
     </row>
     <row r="628" ht="22.5" customHeight="1" spans="1:14">
       <c r="A628" s="13" t="s">
@@ -30671,7 +30665,7 @@
       <c r="M628" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N628" s="18"/>
+      <c r="N628" s="2"/>
     </row>
     <row r="629" ht="22.5" customHeight="1" spans="1:14">
       <c r="A629" s="13" t="s">
@@ -30713,7 +30707,7 @@
       <c r="M629" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N629" s="18"/>
+      <c r="N629" s="2"/>
     </row>
     <row r="630" ht="22.5" customHeight="1" spans="1:14">
       <c r="A630" s="13" t="s">
@@ -30755,7 +30749,7 @@
       <c r="M630" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N630" s="18"/>
+      <c r="N630" s="2"/>
     </row>
     <row r="631" ht="22.5" customHeight="1" spans="1:14">
       <c r="A631" s="13" t="s">
@@ -30797,7 +30791,7 @@
       <c r="M631" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N631" s="18"/>
+      <c r="N631" s="2"/>
     </row>
     <row r="632" ht="22.5" customHeight="1" spans="1:14">
       <c r="A632" s="13" t="s">
@@ -30839,7 +30833,7 @@
       <c r="M632" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N632" s="18"/>
+      <c r="N632" s="2"/>
     </row>
     <row r="633" ht="22.5" customHeight="1" spans="1:14">
       <c r="A633" s="13" t="s">
@@ -30881,7 +30875,7 @@
       <c r="M633" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N633" s="18"/>
+      <c r="N633" s="2"/>
     </row>
     <row r="634" ht="22.5" customHeight="1" spans="1:14">
       <c r="A634" s="13" t="s">
@@ -30923,7 +30917,7 @@
       <c r="M634" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N634" s="18"/>
+      <c r="N634" s="2"/>
     </row>
     <row r="635" ht="22.5" customHeight="1" spans="1:14">
       <c r="A635" s="13" t="s">
@@ -30965,7 +30959,7 @@
       <c r="M635" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N635" s="18"/>
+      <c r="N635" s="2"/>
     </row>
     <row r="636" ht="22.5" customHeight="1" spans="1:14">
       <c r="A636" s="13" t="s">
@@ -31007,7 +31001,7 @@
       <c r="M636" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N636" s="18"/>
+      <c r="N636" s="2"/>
     </row>
     <row r="637" ht="22.5" customHeight="1" spans="1:14">
       <c r="A637" s="13" t="s">
@@ -31049,7 +31043,7 @@
       <c r="M637" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N637" s="18"/>
+      <c r="N637" s="2"/>
     </row>
     <row r="638" ht="22.5" customHeight="1" spans="1:14">
       <c r="A638" s="13" t="s">
@@ -31091,7 +31085,7 @@
       <c r="M638" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N638" s="18"/>
+      <c r="N638" s="2"/>
     </row>
     <row r="639" ht="22.5" customHeight="1" spans="1:14">
       <c r="A639" s="13" t="s">
@@ -31133,7 +31127,7 @@
       <c r="M639" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N639" s="18"/>
+      <c r="N639" s="2"/>
     </row>
     <row r="640" ht="22.5" customHeight="1" spans="1:14">
       <c r="A640" s="13" t="s">
@@ -31175,7 +31169,7 @@
       <c r="M640" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N640" s="18"/>
+      <c r="N640" s="2"/>
     </row>
     <row r="641" ht="22.5" customHeight="1" spans="1:14">
       <c r="A641" s="13" t="s">
@@ -31217,7 +31211,7 @@
       <c r="M641" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N641" s="18"/>
+      <c r="N641" s="2"/>
     </row>
     <row r="642" ht="22.5" customHeight="1" spans="1:14">
       <c r="A642" s="13" t="s">
@@ -31259,7 +31253,7 @@
       <c r="M642" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N642" s="18"/>
+      <c r="N642" s="2"/>
     </row>
     <row r="643" ht="22.5" customHeight="1" spans="1:14">
       <c r="A643" s="13" t="s">
@@ -31301,7 +31295,7 @@
       <c r="M643" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N643" s="18"/>
+      <c r="N643" s="2"/>
     </row>
     <row r="644" ht="22.5" customHeight="1" spans="1:14">
       <c r="A644" s="13" t="s">
@@ -31343,7 +31337,7 @@
       <c r="M644" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N644" s="18"/>
+      <c r="N644" s="2"/>
     </row>
     <row r="645" ht="22.5" customHeight="1" spans="1:14">
       <c r="A645" s="13" t="s">
@@ -31385,7 +31379,7 @@
       <c r="M645" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N645" s="18"/>
+      <c r="N645" s="2"/>
     </row>
     <row r="646" ht="22.5" customHeight="1" spans="1:14">
       <c r="A646" s="13" t="s">
@@ -31427,7 +31421,7 @@
       <c r="M646" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N646" s="18"/>
+      <c r="N646" s="2"/>
     </row>
     <row r="647" ht="22.5" customHeight="1" spans="1:14">
       <c r="A647" s="13" t="s">
@@ -31469,7 +31463,7 @@
       <c r="M647" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N647" s="18"/>
+      <c r="N647" s="2"/>
     </row>
     <row r="648" ht="22.5" customHeight="1" spans="1:14">
       <c r="A648" s="13" t="s">
@@ -31511,7 +31505,7 @@
       <c r="M648" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N648" s="18"/>
+      <c r="N648" s="2"/>
     </row>
     <row r="649" ht="22.5" customHeight="1" spans="1:14">
       <c r="A649" s="13" t="s">
@@ -31553,7 +31547,7 @@
       <c r="M649" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N649" s="18"/>
+      <c r="N649" s="2"/>
     </row>
     <row r="650" ht="22.5" customHeight="1" spans="1:14">
       <c r="A650" s="13" t="s">
@@ -31595,7 +31589,7 @@
       <c r="M650" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N650" s="18"/>
+      <c r="N650" s="2"/>
     </row>
     <row r="651" ht="22.5" customHeight="1" spans="1:14">
       <c r="A651" s="13" t="s">
@@ -31637,7 +31631,7 @@
       <c r="M651" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N651" s="18"/>
+      <c r="N651" s="2"/>
     </row>
     <row r="652" ht="22.5" customHeight="1" spans="1:14">
       <c r="A652" s="13" t="s">
@@ -31679,7 +31673,7 @@
       <c r="M652" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N652" s="18"/>
+      <c r="N652" s="2"/>
     </row>
     <row r="653" ht="22.5" customHeight="1" spans="1:14">
       <c r="A653" s="13" t="s">
@@ -31721,7 +31715,7 @@
       <c r="M653" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N653" s="18"/>
+      <c r="N653" s="2"/>
     </row>
     <row r="654" ht="22.5" customHeight="1" spans="1:14">
       <c r="A654" s="13" t="s">
@@ -31763,7 +31757,7 @@
       <c r="M654" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N654" s="18"/>
+      <c r="N654" s="2"/>
     </row>
     <row r="655" ht="22.5" customHeight="1" spans="1:14">
       <c r="A655" s="13" t="s">
@@ -31805,7 +31799,7 @@
       <c r="M655" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N655" s="18"/>
+      <c r="N655" s="2"/>
     </row>
     <row r="656" ht="22.5" customHeight="1" spans="1:14">
       <c r="A656" s="13" t="s">
@@ -31847,7 +31841,7 @@
       <c r="M656" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N656" s="18"/>
+      <c r="N656" s="2"/>
     </row>
     <row r="657" ht="22.5" customHeight="1" spans="1:14">
       <c r="A657" s="13" t="s">
@@ -31889,7 +31883,7 @@
       <c r="M657" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N657" s="18"/>
+      <c r="N657" s="2"/>
     </row>
     <row r="658" ht="22.5" customHeight="1" spans="1:14">
       <c r="A658" s="13" t="s">
@@ -31931,7 +31925,7 @@
       <c r="M658" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N658" s="18"/>
+      <c r="N658" s="2"/>
     </row>
     <row r="659" ht="22.5" customHeight="1" spans="1:14">
       <c r="A659" s="13" t="s">
@@ -31973,7 +31967,7 @@
       <c r="M659" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N659" s="18"/>
+      <c r="N659" s="2"/>
     </row>
     <row r="660" ht="22.5" customHeight="1" spans="1:14">
       <c r="A660" s="13" t="s">
@@ -32015,7 +32009,7 @@
       <c r="M660" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N660" s="18"/>
+      <c r="N660" s="2"/>
     </row>
     <row r="661" ht="22.5" customHeight="1" spans="1:14">
       <c r="A661" s="13" t="s">
@@ -32057,7 +32051,7 @@
       <c r="M661" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N661" s="18"/>
+      <c r="N661" s="2"/>
     </row>
     <row r="662" ht="22.5" customHeight="1" spans="1:14">
       <c r="A662" s="13" t="s">
@@ -32099,7 +32093,7 @@
       <c r="M662" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N662" s="18"/>
+      <c r="N662" s="2"/>
     </row>
     <row r="663" ht="22.5" customHeight="1" spans="1:14">
       <c r="A663" s="13" t="s">
@@ -32141,7 +32135,7 @@
       <c r="M663" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N663" s="18"/>
+      <c r="N663" s="2"/>
     </row>
     <row r="664" ht="22.5" customHeight="1" spans="1:14">
       <c r="A664" s="13" t="s">
@@ -32183,7 +32177,7 @@
       <c r="M664" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N664" s="18"/>
+      <c r="N664" s="2"/>
     </row>
     <row r="665" ht="22.5" customHeight="1" spans="1:14">
       <c r="A665" s="13" t="s">
@@ -32225,7 +32219,7 @@
       <c r="M665" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N665" s="18"/>
+      <c r="N665" s="2"/>
     </row>
     <row r="666" ht="22.5" customHeight="1" spans="1:14">
       <c r="A666" s="13" t="s">
@@ -32267,7 +32261,7 @@
       <c r="M666" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N666" s="18"/>
+      <c r="N666" s="2"/>
     </row>
     <row r="667" ht="22.5" customHeight="1" spans="1:14">
       <c r="A667" s="13" t="s">
@@ -32309,7 +32303,7 @@
       <c r="M667" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N667" s="18"/>
+      <c r="N667" s="2"/>
     </row>
     <row r="668" ht="22.5" customHeight="1" spans="1:14">
       <c r="A668" s="13" t="s">
@@ -32351,7 +32345,7 @@
       <c r="M668" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N668" s="18"/>
+      <c r="N668" s="2"/>
     </row>
     <row r="669" ht="22.5" customHeight="1" spans="1:14">
       <c r="A669" s="13" t="s">
@@ -32393,10 +32387,10 @@
       <c r="M669" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N669" s="18"/>
+      <c r="N669" s="2"/>
     </row>
     <row r="670" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A670" s="20" t="s">
+      <c r="A670" s="18" t="s">
         <v>728</v>
       </c>
       <c r="B670" s="15">
@@ -32435,7 +32429,7 @@
       <c r="M670" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N670" s="18"/>
+      <c r="N670" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M670">
@@ -32617,8 +32611,8 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/data/311_data.xlsx
+++ b/data/311_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="三国志11武将表" sheetId="11" r:id="rId1"/>
@@ -4221,7 +4221,7 @@
   <sheetPr/>
   <dimension ref="A1:N670"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -33903,8 +33903,8 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O$1:O$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -33981,7 +33981,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
         <v>30000</v>
@@ -34025,10 +34025,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G3" s="2">
         <v>15600</v>
@@ -34069,10 +34069,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
-        <v>25500</v>
+        <v>30000</v>
       </c>
       <c r="G4" s="2">
         <v>15600</v>
@@ -34113,7 +34113,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>30000</v>
@@ -34157,10 +34157,10 @@
         <v>159</v>
       </c>
       <c r="E6" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="G6" s="2">
         <v>15600</v>
@@ -34201,10 +34201,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G7" s="2">
         <v>15600</v>
@@ -34245,10 +34245,10 @@
         <v>166</v>
       </c>
       <c r="E8" s="2">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G8" s="2">
         <v>15600</v>
@@ -34289,10 +34289,10 @@
         <v>159</v>
       </c>
       <c r="E9" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="G9" s="2">
         <v>15600</v>
@@ -34333,10 +34333,10 @@
         <v>46</v>
       </c>
       <c r="E10" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="2">
         <v>15600</v>
@@ -34377,10 +34377,10 @@
         <v>150</v>
       </c>
       <c r="E11" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="G11" s="2">
         <v>15600</v>
@@ -34421,10 +34421,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>17800</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="2">
         <v>15600</v>
@@ -34465,10 +34465,10 @@
         <v>66</v>
       </c>
       <c r="E13" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G13" s="2">
         <v>15600</v>
@@ -34509,10 +34509,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G14" s="2">
         <v>15600</v>
@@ -34553,10 +34553,10 @@
         <v>166</v>
       </c>
       <c r="E15" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G15" s="2">
         <v>15600</v>
@@ -34597,10 +34597,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="G16" s="2">
         <v>15600</v>
@@ -34641,10 +34641,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="2">
         <v>15600</v>
@@ -34685,10 +34685,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="2">
         <v>15600</v>
@@ -34729,10 +34729,10 @@
         <v>138</v>
       </c>
       <c r="E19" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="G19" s="2">
         <v>15600</v>
@@ -34773,10 +34773,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="2">
         <v>15600</v>
@@ -34817,10 +34817,10 @@
         <v>159</v>
       </c>
       <c r="E21" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2">
-        <v>25600</v>
+        <v>30000</v>
       </c>
       <c r="G21" s="2">
         <v>15600</v>
@@ -34861,10 +34861,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="G22" s="2">
         <v>15600</v>
@@ -34905,10 +34905,10 @@
         <v>26</v>
       </c>
       <c r="E23" s="2">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="2">
         <v>15600</v>
@@ -34949,10 +34949,10 @@
         <v>26</v>
       </c>
       <c r="E24" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G24" s="2">
         <v>15600</v>
@@ -34993,10 +34993,10 @@
         <v>43</v>
       </c>
       <c r="E25" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="G25" s="2">
         <v>15600</v>
@@ -35037,10 +35037,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2">
-        <v>23500</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="2">
         <v>15600</v>
@@ -35081,10 +35081,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>26500</v>
+        <v>30000</v>
       </c>
       <c r="G27" s="2">
         <v>15600</v>
@@ -35125,10 +35125,10 @@
         <v>46</v>
       </c>
       <c r="E28" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="G28" s="2">
         <v>15600</v>
@@ -35169,10 +35169,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2">
-        <v>22100</v>
+        <v>30000</v>
       </c>
       <c r="G29" s="2">
         <v>15600</v>
@@ -35213,10 +35213,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2">
-        <v>28400</v>
+        <v>30000</v>
       </c>
       <c r="G30" s="2">
         <v>15600</v>
@@ -35257,10 +35257,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
-        <v>28300</v>
+        <v>30000</v>
       </c>
       <c r="G31" s="2">
         <v>15600</v>
@@ -35301,10 +35301,10 @@
         <v>159</v>
       </c>
       <c r="E32" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F32" s="2">
-        <v>25500</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="2">
         <v>15600</v>
@@ -35345,10 +35345,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="2">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G33" s="2">
         <v>15600</v>
@@ -35389,10 +35389,10 @@
         <v>138</v>
       </c>
       <c r="E34" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G34" s="2">
         <v>15600</v>
@@ -35433,10 +35433,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F35" s="2">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="2">
         <v>15600</v>
@@ -35477,10 +35477,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F36" s="2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G36" s="2">
         <v>15600</v>
@@ -35521,10 +35521,10 @@
         <v>178</v>
       </c>
       <c r="E37" s="2">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="G37" s="2">
         <v>15600</v>
@@ -35565,10 +35565,10 @@
         <v>159</v>
       </c>
       <c r="E38" s="2">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="G38" s="2">
         <v>15600</v>
@@ -35609,10 +35609,10 @@
         <v>151</v>
       </c>
       <c r="E39" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="G39" s="2">
         <v>15600</v>
@@ -35653,10 +35653,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="G40" s="2">
         <v>15600</v>
@@ -35697,10 +35697,10 @@
         <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="G41" s="2">
         <v>15600</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="G42" s="2">
         <v>15600</v>
@@ -35785,10 +35785,10 @@
         <v>138</v>
       </c>
       <c r="E43" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="G43" s="2">
         <v>15600</v>

--- a/data/311_data.xlsx
+++ b/data/311_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="三国志11武将表" sheetId="11" r:id="rId1"/>
@@ -3069,7 +3069,7 @@
     <t>#23a8f2</t>
   </si>
   <si>
-    <t>2408023c-85d4-e4db-7571-f09841ad54af,c92da042-4574-0920-2cda-3dbc4e420f5c,c92da042-4574-0920-2cda-3dbc4e420f5c,ecc4238f-83a0-dddc-c3a5-6cadd8d2e28a</t>
+    <t>ecc4238f-83a0-dddc-c3a5-6cadd8d2e28a,c92da042-4574-0920-2cda-3dbc4e420f5c,2408023c-85d4-e4db-7571-f09841ad54af,6ee35e2e-de01-c165-89d6-73a48465da40</t>
   </si>
   <si>
     <t>#889eda</t>
@@ -3087,7 +3087,7 @@
     <t>#b29030</t>
   </si>
   <si>
-    <t>61b9c512-225d-d918-086c-e2da4edb860f,055a5ee1-332d-6889-c21a-5e06d3aa1a04</t>
+    <t>61b9c512-225d-d918-086c-e2da4edb860f,055a5ee1-332d-6889-c21a-5e06d3aa1a04,ce9a5f57-4665-44d2-2f57-1c4d43b1a992,6ee35e2e-de01-c165-89d6-73a48465da40</t>
   </si>
   <si>
     <t>#2054a1</t>
@@ -33923,8 +33923,8 @@
   <sheetPr/>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -37085,8 +37085,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
